--- a/ClinicaReportes/resources/Felix Ortega Dongo30888.xlsx
+++ b/ClinicaReportes/resources/Felix Ortega Dongo30888.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="107">
   <si>
     <t>CMP</t>
   </si>
@@ -59,7 +59,7 @@
     <t>2045030</t>
   </si>
   <si>
-    <t>20220833</t>
+    <t>G220101</t>
   </si>
   <si>
     <t>06/06/2022</t>
@@ -77,6 +77,9 @@
     <t>2061798</t>
   </si>
   <si>
+    <t>G400119</t>
+  </si>
+  <si>
     <t>14/06/2022</t>
   </si>
   <si>
@@ -89,15 +92,33 @@
     <t>15/06/2022</t>
   </si>
   <si>
+    <t>G400113</t>
+  </si>
+  <si>
+    <t>G400103</t>
+  </si>
+  <si>
+    <t>G400102</t>
+  </si>
+  <si>
     <t>Honorarios</t>
   </si>
   <si>
+    <t>J500101</t>
+  </si>
+  <si>
+    <t>G400105</t>
+  </si>
+  <si>
     <t>CHURA CAHUANA DENILSON ANDRE</t>
   </si>
   <si>
     <t>2032267</t>
   </si>
   <si>
+    <t>G400110</t>
+  </si>
+  <si>
     <t>17/06/2022</t>
   </si>
   <si>
@@ -119,12 +140,21 @@
     <t>2017104</t>
   </si>
   <si>
+    <t>J500201</t>
+  </si>
+  <si>
     <t>TICONA NAYRA CARLOS ALBERTO</t>
   </si>
   <si>
     <t>2053857</t>
   </si>
   <si>
+    <t>G400115</t>
+  </si>
+  <si>
+    <t>G400117</t>
+  </si>
+  <si>
     <t>20/06/2022</t>
   </si>
   <si>
@@ -183,6 +213,126 @@
   </si>
   <si>
     <t>2046832</t>
+  </si>
+  <si>
+    <t>13/04/2022</t>
+  </si>
+  <si>
+    <t>CUNEO TIBURCIO FACUNDO MARIANO</t>
+  </si>
+  <si>
+    <t>PLAN FAMILIAR SALUD SAN P</t>
+  </si>
+  <si>
+    <t>2058923</t>
+  </si>
+  <si>
+    <t>J500303</t>
+  </si>
+  <si>
+    <t>MENENDEZ GARCIA JUDY EDITH</t>
+  </si>
+  <si>
+    <t>2004121</t>
+  </si>
+  <si>
+    <t>04/07/2022</t>
+  </si>
+  <si>
+    <t>QUISPE AMAT PAULINA</t>
+  </si>
+  <si>
+    <t>2010435</t>
+  </si>
+  <si>
+    <t>SAGASTEGUI VASQUEZ TIRSA LIANA</t>
+  </si>
+  <si>
+    <t>2048787</t>
+  </si>
+  <si>
+    <t>06/07/2022</t>
+  </si>
+  <si>
+    <t>SARCA CHOQUEHUANCA JESSICA LEYLA</t>
+  </si>
+  <si>
+    <t>2010295</t>
+  </si>
+  <si>
+    <t>08/07/2022</t>
+  </si>
+  <si>
+    <t>ATARAMA BAZAN MGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>2063965</t>
+  </si>
+  <si>
+    <t>G400118</t>
+  </si>
+  <si>
+    <t>18/07/2022</t>
+  </si>
+  <si>
+    <t>MEZA CONGONA FLOR ANGELA</t>
+  </si>
+  <si>
+    <t>2027583</t>
+  </si>
+  <si>
+    <t>PAUCARA APAZA MARINO MARIO</t>
+  </si>
+  <si>
+    <t>2050417</t>
+  </si>
+  <si>
+    <t>G400116</t>
+  </si>
+  <si>
+    <t>20/07/2022</t>
+  </si>
+  <si>
+    <t>YDME VERA WILSON JOEL</t>
+  </si>
+  <si>
+    <t>2024472</t>
+  </si>
+  <si>
+    <t>BELTRAN BRAVO HECTOR ALONSO</t>
+  </si>
+  <si>
+    <t>2040772</t>
+  </si>
+  <si>
+    <t>D020201</t>
+  </si>
+  <si>
+    <t>22/07/2022</t>
+  </si>
+  <si>
+    <t>CALIENES RIVERA OLGA PATRICIA YANET</t>
+  </si>
+  <si>
+    <t>2022352</t>
+  </si>
+  <si>
+    <t>SALAZAR CHAVEZ MANUEL MARIO</t>
+  </si>
+  <si>
+    <t>2039134</t>
+  </si>
+  <si>
+    <t>27/07/2022</t>
+  </si>
+  <si>
+    <t>LEON QUISPE EDGARD</t>
+  </si>
+  <si>
+    <t>2065884</t>
+  </si>
+  <si>
+    <t>Subtotal</t>
   </si>
 </sst>
 </file>
@@ -227,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:L59"/>
+  <dimension ref="B2:M92"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -258,6 +408,9 @@
       <c r="I2" t="s">
         <v>7</v>
       </c>
+      <c r="J2" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="3">
       <c r="B3" t="s">
@@ -281,12 +434,15 @@
       <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" t="n">
-        <v>0.0</v>
+      <c r="I3" t="s">
+        <v>15</v>
       </c>
       <c r="J3" t="n">
         <v>0.0</v>
       </c>
+      <c r="K3" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
@@ -310,11 +466,14 @@
       <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="n">
         <v>247.02</v>
       </c>
-      <c r="J4" t="n">
-        <v>2.4702</v>
+      <c r="K4" t="n">
+        <v>11.115900000000002</v>
       </c>
     </row>
     <row r="5">
@@ -322,10 +481,10 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -337,13 +496,16 @@
         <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" t="n">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="n">
         <v>267.62</v>
       </c>
-      <c r="J5" t="n">
-        <v>2.6762</v>
+      <c r="K5" t="n">
+        <v>12.0429</v>
       </c>
     </row>
     <row r="6">
@@ -351,7 +513,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -368,11 +530,14 @@
       <c r="H6" t="s">
         <v>20</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" t="n">
         <v>52.92</v>
       </c>
-      <c r="J6" t="n">
-        <v>0.5292</v>
+      <c r="K6" t="n">
+        <v>2.3814</v>
       </c>
     </row>
     <row r="7">
@@ -380,7 +545,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -397,11 +562,14 @@
       <c r="H7" t="s">
         <v>20</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" t="n">
         <v>21.17</v>
       </c>
-      <c r="J7" t="n">
-        <v>0.21170000000000003</v>
+      <c r="K7" t="n">
+        <v>0.9526500000000001</v>
       </c>
     </row>
     <row r="8">
@@ -409,7 +577,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -426,11 +594,14 @@
       <c r="H8" t="s">
         <v>20</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" t="n">
         <v>21.17</v>
       </c>
-      <c r="J8" t="n">
-        <v>0.21170000000000003</v>
+      <c r="K8" t="n">
+        <v>0.9526500000000001</v>
       </c>
     </row>
     <row r="9">
@@ -438,13 +609,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
@@ -455,10 +626,13 @@
       <c r="H9" t="s">
         <v>20</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" t="n">
         <v>40.0</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -467,7 +641,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -484,11 +658,14 @@
       <c r="H10" t="s">
         <v>20</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" t="n">
         <v>42.34</v>
       </c>
-      <c r="J10" t="n">
-        <v>0.42340000000000005</v>
+      <c r="K10" t="n">
+        <v>1.9053000000000002</v>
       </c>
     </row>
     <row r="11">
@@ -496,13 +673,13 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
@@ -511,12 +688,15 @@
         <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" t="n">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" t="n">
         <v>40.0</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -525,10 +705,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -540,13 +720,16 @@
         <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" t="n">
+        <v>33</v>
+      </c>
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" t="n">
         <v>21.17</v>
       </c>
-      <c r="J12" t="n">
-        <v>0.21170000000000003</v>
+      <c r="K12" t="n">
+        <v>0.9526500000000001</v>
       </c>
     </row>
     <row r="13">
@@ -554,10 +737,10 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -569,13 +752,16 @@
         <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" t="n">
+        <v>33</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" t="n">
         <v>19.42</v>
       </c>
-      <c r="J13" t="n">
-        <v>0.1942</v>
+      <c r="K13" t="n">
+        <v>0.8739000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -583,27 +769,30 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
         <v>29</v>
       </c>
-      <c r="E14" t="s">
-        <v>25</v>
-      </c>
       <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" t="s">
         <v>30</v>
       </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>48.0</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -612,28 +801,31 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
         <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" t="n">
+        <v>38</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" t="n">
         <v>267.62</v>
       </c>
-      <c r="J15" t="n">
-        <v>2.6762</v>
+      <c r="K15" t="n">
+        <v>12.0429</v>
       </c>
     </row>
     <row r="16">
@@ -641,28 +833,31 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
         <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" t="n">
+        <v>38</v>
+      </c>
+      <c r="I16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" t="n">
         <v>57.33</v>
       </c>
-      <c r="J16" t="n">
-        <v>0.5733</v>
+      <c r="K16" t="n">
+        <v>2.57985</v>
       </c>
     </row>
     <row r="17">
@@ -670,27 +865,30 @@
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H17" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" t="n">
+        <v>41</v>
+      </c>
+      <c r="I17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" t="n">
         <v>48.0</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -699,27 +897,30 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" t="s">
         <v>30</v>
       </c>
-      <c r="G18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" t="s">
-        <v>36</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>48.0</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -728,28 +929,31 @@
         <v>8</v>
       </c>
       <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" t="s">
         <v>28</v>
       </c>
-      <c r="D19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>22.93</v>
       </c>
-      <c r="J19" t="n">
-        <v>0.2293</v>
+      <c r="K19" t="n">
+        <v>1.03185</v>
       </c>
     </row>
     <row r="20">
@@ -757,28 +961,31 @@
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s">
         <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" t="n">
+        <v>44</v>
+      </c>
+      <c r="I20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" t="n">
         <v>22.93</v>
       </c>
-      <c r="J20" t="n">
-        <v>0.2293</v>
+      <c r="K20" t="n">
+        <v>1.03185</v>
       </c>
     </row>
     <row r="21">
@@ -786,28 +993,31 @@
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
         <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>36</v>
-      </c>
-      <c r="I21" t="n">
+        <v>44</v>
+      </c>
+      <c r="I21" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" t="n">
         <v>22.93</v>
       </c>
-      <c r="J21" t="n">
-        <v>0.2293</v>
+      <c r="K21" t="n">
+        <v>1.03185</v>
       </c>
     </row>
     <row r="22">
@@ -815,28 +1025,31 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
         <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>36</v>
-      </c>
-      <c r="I22" t="n">
+        <v>44</v>
+      </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" t="n">
         <v>22.93</v>
       </c>
-      <c r="J22" t="n">
-        <v>0.2293</v>
+      <c r="K22" t="n">
+        <v>1.03185</v>
       </c>
     </row>
     <row r="23">
@@ -844,27 +1057,30 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" t="s">
         <v>30</v>
       </c>
-      <c r="G23" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" t="s">
-        <v>34</v>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>48.0</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -873,28 +1089,31 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s">
         <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>39</v>
-      </c>
-      <c r="I24" t="n">
+        <v>49</v>
+      </c>
+      <c r="I24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" t="n">
         <v>21.04</v>
       </c>
-      <c r="J24" t="n">
-        <v>0.2104</v>
+      <c r="K24" t="n">
+        <v>0.9468</v>
       </c>
     </row>
     <row r="25">
@@ -902,27 +1121,30 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" t="s">
         <v>30</v>
       </c>
-      <c r="G25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" t="s">
-        <v>39</v>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>48.0</v>
       </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -931,27 +1153,30 @@
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E26" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" t="s">
         <v>30</v>
       </c>
-      <c r="G26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" t="s">
-        <v>41</v>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>48.0</v>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -960,28 +1185,31 @@
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D27" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
         <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>41</v>
-      </c>
-      <c r="I27" t="n">
+        <v>51</v>
+      </c>
+      <c r="I27" t="s">
+        <v>34</v>
+      </c>
+      <c r="J27" t="n">
         <v>21.04</v>
       </c>
-      <c r="J27" t="n">
-        <v>0.2104</v>
+      <c r="K27" t="n">
+        <v>0.9468</v>
       </c>
     </row>
     <row r="28">
@@ -989,28 +1217,31 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D28" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
         <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>41</v>
-      </c>
-      <c r="I28" t="n">
+        <v>51</v>
+      </c>
+      <c r="I28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" t="n">
         <v>267.62</v>
       </c>
-      <c r="J28" t="n">
-        <v>2.6762</v>
+      <c r="K28" t="n">
+        <v>12.0429</v>
       </c>
     </row>
     <row r="29">
@@ -1018,28 +1249,31 @@
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
         <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>41</v>
-      </c>
-      <c r="I29" t="n">
+        <v>51</v>
+      </c>
+      <c r="I29" t="s">
+        <v>46</v>
+      </c>
+      <c r="J29" t="n">
         <v>22.93</v>
       </c>
-      <c r="J29" t="n">
-        <v>0.2293</v>
+      <c r="K29" t="n">
+        <v>1.03185</v>
       </c>
     </row>
     <row r="30">
@@ -1047,28 +1281,31 @@
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
         <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>41</v>
-      </c>
-      <c r="I30" t="n">
+        <v>51</v>
+      </c>
+      <c r="I30" t="s">
+        <v>45</v>
+      </c>
+      <c r="J30" t="n">
         <v>22.93</v>
       </c>
-      <c r="J30" t="n">
-        <v>0.2293</v>
+      <c r="K30" t="n">
+        <v>1.03185</v>
       </c>
     </row>
     <row r="31">
@@ -1076,28 +1313,31 @@
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
         <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>41</v>
-      </c>
-      <c r="I31" t="n">
+        <v>51</v>
+      </c>
+      <c r="I31" t="s">
+        <v>27</v>
+      </c>
+      <c r="J31" t="n">
         <v>22.93</v>
       </c>
-      <c r="J31" t="n">
-        <v>0.2293</v>
+      <c r="K31" t="n">
+        <v>1.03185</v>
       </c>
     </row>
     <row r="32">
@@ -1105,28 +1345,31 @@
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
         <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>41</v>
-      </c>
-      <c r="I32" t="n">
+        <v>51</v>
+      </c>
+      <c r="I32" t="s">
+        <v>28</v>
+      </c>
+      <c r="J32" t="n">
         <v>22.93</v>
       </c>
-      <c r="J32" t="n">
-        <v>0.2293</v>
+      <c r="K32" t="n">
+        <v>1.03185</v>
       </c>
     </row>
     <row r="33">
@@ -1134,27 +1377,30 @@
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D33" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E33" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F33" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" t="s">
+        <v>53</v>
+      </c>
+      <c r="I33" t="s">
         <v>30</v>
       </c>
-      <c r="G33" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" t="s">
-        <v>43</v>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>48.0</v>
       </c>
-      <c r="J33" t="n">
+      <c r="K33" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1163,28 +1409,31 @@
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E34" t="s">
         <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G34" t="s">
         <v>19</v>
       </c>
       <c r="H34" t="s">
-        <v>43</v>
-      </c>
-      <c r="I34" t="n">
+        <v>53</v>
+      </c>
+      <c r="I34" t="s">
+        <v>45</v>
+      </c>
+      <c r="J34" t="n">
         <v>22.93</v>
       </c>
-      <c r="J34" t="n">
-        <v>0.2293</v>
+      <c r="K34" t="n">
+        <v>1.03185</v>
       </c>
     </row>
     <row r="35">
@@ -1192,28 +1441,31 @@
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D35" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G35" t="s">
         <v>19</v>
       </c>
       <c r="H35" t="s">
-        <v>43</v>
-      </c>
-      <c r="I35" t="n">
+        <v>53</v>
+      </c>
+      <c r="I35" t="s">
+        <v>34</v>
+      </c>
+      <c r="J35" t="n">
         <v>21.04</v>
       </c>
-      <c r="J35" t="n">
-        <v>0.2104</v>
+      <c r="K35" t="n">
+        <v>0.9468</v>
       </c>
     </row>
     <row r="36">
@@ -1221,28 +1473,31 @@
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D36" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E36" t="s">
         <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G36" t="s">
         <v>19</v>
       </c>
       <c r="H36" t="s">
-        <v>43</v>
-      </c>
-      <c r="I36" t="n">
+        <v>53</v>
+      </c>
+      <c r="I36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J36" t="n">
         <v>22.93</v>
       </c>
-      <c r="J36" t="n">
-        <v>0.2293</v>
+      <c r="K36" t="n">
+        <v>1.03185</v>
       </c>
     </row>
     <row r="37">
@@ -1250,28 +1505,31 @@
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D37" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G37" t="s">
         <v>19</v>
       </c>
       <c r="H37" t="s">
+        <v>55</v>
+      </c>
+      <c r="I37" t="s">
         <v>45</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>22.93</v>
       </c>
-      <c r="J37" t="n">
-        <v>0.2293</v>
+      <c r="K37" t="n">
+        <v>1.03185</v>
       </c>
     </row>
     <row r="38">
@@ -1279,28 +1537,31 @@
         <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D38" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E38" t="s">
         <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G38" t="s">
         <v>19</v>
       </c>
       <c r="H38" t="s">
-        <v>45</v>
-      </c>
-      <c r="I38" t="n">
+        <v>55</v>
+      </c>
+      <c r="I38" t="s">
+        <v>27</v>
+      </c>
+      <c r="J38" t="n">
         <v>22.93</v>
       </c>
-      <c r="J38" t="n">
-        <v>0.2293</v>
+      <c r="K38" t="n">
+        <v>1.03185</v>
       </c>
     </row>
     <row r="39">
@@ -1308,27 +1569,30 @@
         <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D39" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E39" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F39" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" t="s">
+        <v>55</v>
+      </c>
+      <c r="I39" t="s">
         <v>30</v>
       </c>
-      <c r="G39" t="s">
-        <v>19</v>
-      </c>
-      <c r="H39" t="s">
-        <v>45</v>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>48.0</v>
       </c>
-      <c r="J39" t="n">
+      <c r="K39" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1337,28 +1601,31 @@
         <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D40" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E40" t="s">
         <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G40" t="s">
         <v>19</v>
       </c>
       <c r="H40" t="s">
-        <v>45</v>
-      </c>
-      <c r="I40" t="n">
+        <v>55</v>
+      </c>
+      <c r="I40" t="s">
+        <v>28</v>
+      </c>
+      <c r="J40" t="n">
         <v>22.93</v>
       </c>
-      <c r="J40" t="n">
-        <v>0.2293</v>
+      <c r="K40" t="n">
+        <v>1.03185</v>
       </c>
     </row>
     <row r="41">
@@ -1366,27 +1633,30 @@
         <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D41" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E41" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F41" t="s">
+        <v>37</v>
+      </c>
+      <c r="G41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" t="s">
+        <v>58</v>
+      </c>
+      <c r="I41" t="s">
         <v>30</v>
       </c>
-      <c r="G41" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" t="s">
-        <v>48</v>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>48.0</v>
       </c>
-      <c r="J41" t="n">
+      <c r="K41" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1395,28 +1665,31 @@
         <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D42" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E42" t="s">
         <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G42" t="s">
         <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
-      </c>
-      <c r="I42" t="n">
+        <v>58</v>
+      </c>
+      <c r="I42" t="s">
+        <v>45</v>
+      </c>
+      <c r="J42" t="n">
         <v>22.93</v>
       </c>
-      <c r="J42" t="n">
-        <v>0.2293</v>
+      <c r="K42" t="n">
+        <v>1.03185</v>
       </c>
     </row>
     <row r="43">
@@ -1424,28 +1697,31 @@
         <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D43" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G43" t="s">
         <v>19</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
-      </c>
-      <c r="I43" t="n">
+        <v>58</v>
+      </c>
+      <c r="I43" t="s">
+        <v>34</v>
+      </c>
+      <c r="J43" t="n">
         <v>21.04</v>
       </c>
-      <c r="J43" t="n">
-        <v>0.2104</v>
+      <c r="K43" t="n">
+        <v>0.9468</v>
       </c>
     </row>
     <row r="44">
@@ -1453,28 +1729,31 @@
         <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D44" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E44" t="s">
         <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G44" t="s">
         <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
-      </c>
-      <c r="I44" t="n">
+        <v>58</v>
+      </c>
+      <c r="I44" t="s">
+        <v>28</v>
+      </c>
+      <c r="J44" t="n">
         <v>22.93</v>
       </c>
-      <c r="J44" t="n">
-        <v>0.2293</v>
+      <c r="K44" t="n">
+        <v>1.03185</v>
       </c>
     </row>
     <row r="45">
@@ -1482,28 +1761,31 @@
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D45" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E45" t="s">
         <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s">
         <v>19</v>
       </c>
       <c r="H45" t="s">
-        <v>50</v>
-      </c>
-      <c r="I45" t="n">
+        <v>60</v>
+      </c>
+      <c r="I45" t="s">
+        <v>27</v>
+      </c>
+      <c r="J45" t="n">
         <v>22.93</v>
       </c>
-      <c r="J45" t="n">
-        <v>0.2293</v>
+      <c r="K45" t="n">
+        <v>1.03185</v>
       </c>
     </row>
     <row r="46">
@@ -1511,28 +1793,31 @@
         <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D46" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E46" t="s">
         <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s">
         <v>19</v>
       </c>
       <c r="H46" t="s">
-        <v>50</v>
-      </c>
-      <c r="I46" t="n">
+        <v>60</v>
+      </c>
+      <c r="I46" t="s">
+        <v>28</v>
+      </c>
+      <c r="J46" t="n">
         <v>22.93</v>
       </c>
-      <c r="J46" t="n">
-        <v>0.2293</v>
+      <c r="K46" t="n">
+        <v>1.03185</v>
       </c>
     </row>
     <row r="47">
@@ -1540,28 +1825,31 @@
         <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D47" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G47" t="s">
         <v>19</v>
       </c>
       <c r="H47" t="s">
-        <v>50</v>
-      </c>
-      <c r="I47" t="n">
+        <v>60</v>
+      </c>
+      <c r="I47" t="s">
+        <v>34</v>
+      </c>
+      <c r="J47" t="n">
         <v>21.04</v>
       </c>
-      <c r="J47" t="n">
-        <v>0.2104</v>
+      <c r="K47" t="n">
+        <v>0.9468</v>
       </c>
     </row>
     <row r="48">
@@ -1569,27 +1857,30 @@
         <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D48" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E48" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F48" t="s">
+        <v>37</v>
+      </c>
+      <c r="G48" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" t="s">
+        <v>60</v>
+      </c>
+      <c r="I48" t="s">
         <v>30</v>
       </c>
-      <c r="G48" t="s">
-        <v>19</v>
-      </c>
-      <c r="H48" t="s">
-        <v>50</v>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="n">
         <v>48.0</v>
       </c>
-      <c r="J48" t="n">
+      <c r="K48" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1598,28 +1889,31 @@
         <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D49" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E49" t="s">
         <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G49" t="s">
         <v>19</v>
       </c>
       <c r="H49" t="s">
-        <v>52</v>
-      </c>
-      <c r="I49" t="n">
+        <v>62</v>
+      </c>
+      <c r="I49" t="s">
+        <v>27</v>
+      </c>
+      <c r="J49" t="n">
         <v>22.93</v>
       </c>
-      <c r="J49" t="n">
-        <v>0.2293</v>
+      <c r="K49" t="n">
+        <v>1.03185</v>
       </c>
     </row>
     <row r="50">
@@ -1627,28 +1921,31 @@
         <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D50" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E50" t="s">
         <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G50" t="s">
         <v>19</v>
       </c>
       <c r="H50" t="s">
-        <v>52</v>
-      </c>
-      <c r="I50" t="n">
+        <v>62</v>
+      </c>
+      <c r="I50" t="s">
+        <v>34</v>
+      </c>
+      <c r="J50" t="n">
         <v>21.04</v>
       </c>
-      <c r="J50" t="n">
-        <v>0.2104</v>
+      <c r="K50" t="n">
+        <v>0.9468</v>
       </c>
     </row>
     <row r="51">
@@ -1656,27 +1953,30 @@
         <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D51" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E51" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F51" t="s">
+        <v>37</v>
+      </c>
+      <c r="G51" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" t="s">
+        <v>62</v>
+      </c>
+      <c r="I51" t="s">
         <v>30</v>
       </c>
-      <c r="G51" t="s">
-        <v>19</v>
-      </c>
-      <c r="H51" t="s">
-        <v>52</v>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="n">
         <v>48.0</v>
       </c>
-      <c r="J51" t="n">
+      <c r="K51" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1685,28 +1985,31 @@
         <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D52" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E52" t="s">
         <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G52" t="s">
         <v>19</v>
       </c>
       <c r="H52" t="s">
-        <v>52</v>
-      </c>
-      <c r="I52" t="n">
+        <v>62</v>
+      </c>
+      <c r="I52" t="s">
+        <v>28</v>
+      </c>
+      <c r="J52" t="n">
         <v>22.93</v>
       </c>
-      <c r="J52" t="n">
-        <v>0.2293</v>
+      <c r="K52" t="n">
+        <v>1.03185</v>
       </c>
     </row>
     <row r="53">
@@ -1714,27 +2017,30 @@
         <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D53" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F53" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="G53" t="s">
         <v>19</v>
       </c>
       <c r="H53" t="s">
-        <v>56</v>
-      </c>
-      <c r="I53" t="n">
+        <v>66</v>
+      </c>
+      <c r="I53" t="s">
+        <v>30</v>
+      </c>
+      <c r="J53" t="n">
         <v>40.0</v>
       </c>
-      <c r="J53" t="n">
+      <c r="K53" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1743,28 +2049,31 @@
         <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D54" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E54" t="s">
         <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="G54" t="s">
         <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>56</v>
-      </c>
-      <c r="I54" t="n">
+        <v>66</v>
+      </c>
+      <c r="I54" t="s">
+        <v>26</v>
+      </c>
+      <c r="J54" t="n">
         <v>51.82</v>
       </c>
-      <c r="J54" t="n">
-        <v>0.5182</v>
+      <c r="K54" t="n">
+        <v>2.3319</v>
       </c>
     </row>
     <row r="55">
@@ -1772,28 +2081,31 @@
         <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D55" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E55" t="s">
         <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="G55" t="s">
         <v>19</v>
       </c>
       <c r="H55" t="s">
-        <v>56</v>
-      </c>
-      <c r="I55" t="n">
+        <v>66</v>
+      </c>
+      <c r="I55" t="s">
+        <v>21</v>
+      </c>
+      <c r="J55" t="n">
         <v>241.88</v>
       </c>
-      <c r="J55" t="n">
-        <v>2.4188</v>
+      <c r="K55" t="n">
+        <v>10.8846</v>
       </c>
     </row>
     <row r="56">
@@ -1801,28 +2113,31 @@
         <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D56" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="G56" t="s">
         <v>19</v>
       </c>
       <c r="H56" t="s">
-        <v>56</v>
-      </c>
-      <c r="I56" t="n">
+        <v>66</v>
+      </c>
+      <c r="I56" t="s">
+        <v>45</v>
+      </c>
+      <c r="J56" t="n">
         <v>20.73</v>
       </c>
-      <c r="J56" t="n">
-        <v>0.2073</v>
+      <c r="K56" t="n">
+        <v>0.93285</v>
       </c>
     </row>
     <row r="57">
@@ -1830,28 +2145,31 @@
         <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D57" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="G57" t="s">
         <v>19</v>
       </c>
       <c r="H57" t="s">
-        <v>56</v>
-      </c>
-      <c r="I57" t="n">
+        <v>66</v>
+      </c>
+      <c r="I57" t="s">
+        <v>27</v>
+      </c>
+      <c r="J57" t="n">
         <v>20.73</v>
       </c>
-      <c r="J57" t="n">
-        <v>0.2073</v>
+      <c r="K57" t="n">
+        <v>0.93285</v>
       </c>
     </row>
     <row r="58">
@@ -1859,33 +2177,1092 @@
         <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D58" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="G58" t="s">
         <v>19</v>
       </c>
       <c r="H58" t="s">
-        <v>56</v>
-      </c>
-      <c r="I58" t="n">
+        <v>66</v>
+      </c>
+      <c r="I58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J58" t="n">
         <v>20.73</v>
       </c>
-      <c r="J58" t="n">
-        <v>0.2073</v>
+      <c r="K58" t="n">
+        <v>0.93285</v>
       </c>
     </row>
     <row r="59">
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59" t="s">
+        <v>68</v>
+      </c>
+      <c r="E59" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" t="s">
+        <v>69</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" t="s">
+        <v>70</v>
+      </c>
+      <c r="I59" t="s">
+        <v>28</v>
+      </c>
+      <c r="J59" t="n">
+        <v>17.64</v>
+      </c>
       <c r="K59" t="n">
-        <v>22.031999999999993</v>
+        <v>0.7938</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60" t="s">
+        <v>68</v>
+      </c>
+      <c r="E60" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60" t="s">
+        <v>69</v>
+      </c>
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" t="s">
+        <v>70</v>
+      </c>
+      <c r="I60" t="s">
+        <v>71</v>
+      </c>
+      <c r="J60" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" t="s">
+        <v>72</v>
+      </c>
+      <c r="E61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" t="s">
+        <v>69</v>
+      </c>
+      <c r="G61" t="s">
+        <v>19</v>
+      </c>
+      <c r="H61" t="s">
+        <v>73</v>
+      </c>
+      <c r="I61" t="s">
+        <v>27</v>
+      </c>
+      <c r="J61" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1.03185</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" t="s">
+        <v>72</v>
+      </c>
+      <c r="E62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" t="s">
+        <v>69</v>
+      </c>
+      <c r="G62" t="s">
+        <v>19</v>
+      </c>
+      <c r="H62" t="s">
+        <v>73</v>
+      </c>
+      <c r="I62" t="s">
+        <v>28</v>
+      </c>
+      <c r="J62" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1.03185</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>63</v>
+      </c>
+      <c r="D63" t="s">
+        <v>72</v>
+      </c>
+      <c r="E63" t="s">
+        <v>29</v>
+      </c>
+      <c r="F63" t="s">
+        <v>69</v>
+      </c>
+      <c r="G63" t="s">
+        <v>19</v>
+      </c>
+      <c r="H63" t="s">
+        <v>73</v>
+      </c>
+      <c r="I63" t="s">
+        <v>30</v>
+      </c>
+      <c r="J63" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
+        <v>74</v>
+      </c>
+      <c r="D64" t="s">
+        <v>75</v>
+      </c>
+      <c r="E64" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64" t="s">
+        <v>69</v>
+      </c>
+      <c r="G64" t="s">
+        <v>19</v>
+      </c>
+      <c r="H64" t="s">
+        <v>76</v>
+      </c>
+      <c r="I64" t="s">
+        <v>30</v>
+      </c>
+      <c r="J64" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
+        <v>74</v>
+      </c>
+      <c r="D65" t="s">
+        <v>75</v>
+      </c>
+      <c r="E65" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" t="s">
+        <v>69</v>
+      </c>
+      <c r="G65" t="s">
+        <v>19</v>
+      </c>
+      <c r="H65" t="s">
+        <v>76</v>
+      </c>
+      <c r="I65" t="s">
+        <v>27</v>
+      </c>
+      <c r="J65" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1.03185</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" t="s">
+        <v>74</v>
+      </c>
+      <c r="D66" t="s">
+        <v>77</v>
+      </c>
+      <c r="E66" t="s">
+        <v>29</v>
+      </c>
+      <c r="F66" t="s">
+        <v>69</v>
+      </c>
+      <c r="G66" t="s">
+        <v>19</v>
+      </c>
+      <c r="H66" t="s">
+        <v>78</v>
+      </c>
+      <c r="I66" t="s">
+        <v>30</v>
+      </c>
+      <c r="J66" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
+        <v>79</v>
+      </c>
+      <c r="D67" t="s">
+        <v>80</v>
+      </c>
+      <c r="E67" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67" t="s">
+        <v>69</v>
+      </c>
+      <c r="G67" t="s">
+        <v>19</v>
+      </c>
+      <c r="H67" t="s">
+        <v>81</v>
+      </c>
+      <c r="I67" t="s">
+        <v>30</v>
+      </c>
+      <c r="J67" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" t="s">
+        <v>79</v>
+      </c>
+      <c r="D68" t="s">
+        <v>80</v>
+      </c>
+      <c r="E68" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" t="s">
+        <v>69</v>
+      </c>
+      <c r="G68" t="s">
+        <v>19</v>
+      </c>
+      <c r="H68" t="s">
+        <v>81</v>
+      </c>
+      <c r="I68" t="s">
+        <v>45</v>
+      </c>
+      <c r="J68" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="K68" t="n">
+        <v>1.03185</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s">
+        <v>79</v>
+      </c>
+      <c r="D69" t="s">
+        <v>80</v>
+      </c>
+      <c r="E69" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" t="s">
+        <v>69</v>
+      </c>
+      <c r="G69" t="s">
+        <v>19</v>
+      </c>
+      <c r="H69" t="s">
+        <v>81</v>
+      </c>
+      <c r="I69" t="s">
+        <v>34</v>
+      </c>
+      <c r="J69" t="n">
+        <v>21.04</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.9468</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
+        <v>79</v>
+      </c>
+      <c r="D70" t="s">
+        <v>80</v>
+      </c>
+      <c r="E70" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" t="s">
+        <v>69</v>
+      </c>
+      <c r="G70" t="s">
+        <v>19</v>
+      </c>
+      <c r="H70" t="s">
+        <v>81</v>
+      </c>
+      <c r="I70" t="s">
+        <v>28</v>
+      </c>
+      <c r="J70" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="K70" t="n">
+        <v>1.03185</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s">
+        <v>82</v>
+      </c>
+      <c r="D71" t="s">
+        <v>83</v>
+      </c>
+      <c r="E71" t="s">
+        <v>29</v>
+      </c>
+      <c r="F71" t="s">
+        <v>69</v>
+      </c>
+      <c r="G71" t="s">
+        <v>19</v>
+      </c>
+      <c r="H71" t="s">
+        <v>84</v>
+      </c>
+      <c r="I71" t="s">
+        <v>30</v>
+      </c>
+      <c r="J71" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" t="s">
+        <v>82</v>
+      </c>
+      <c r="D72" t="s">
+        <v>83</v>
+      </c>
+      <c r="E72" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" t="s">
+        <v>69</v>
+      </c>
+      <c r="G72" t="s">
+        <v>19</v>
+      </c>
+      <c r="H72" t="s">
+        <v>84</v>
+      </c>
+      <c r="I72" t="s">
+        <v>85</v>
+      </c>
+      <c r="J72" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1.872</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" t="s">
+        <v>86</v>
+      </c>
+      <c r="D73" t="s">
+        <v>87</v>
+      </c>
+      <c r="E73" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" t="s">
+        <v>69</v>
+      </c>
+      <c r="G73" t="s">
+        <v>19</v>
+      </c>
+      <c r="H73" t="s">
+        <v>88</v>
+      </c>
+      <c r="I73" t="s">
+        <v>27</v>
+      </c>
+      <c r="J73" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1.03185</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" t="s">
+        <v>86</v>
+      </c>
+      <c r="D74" t="s">
+        <v>87</v>
+      </c>
+      <c r="E74" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" t="s">
+        <v>69</v>
+      </c>
+      <c r="G74" t="s">
+        <v>19</v>
+      </c>
+      <c r="H74" t="s">
+        <v>88</v>
+      </c>
+      <c r="I74" t="s">
+        <v>28</v>
+      </c>
+      <c r="J74" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1.03185</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" t="s">
+        <v>86</v>
+      </c>
+      <c r="D75" t="s">
+        <v>87</v>
+      </c>
+      <c r="E75" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75" t="s">
+        <v>69</v>
+      </c>
+      <c r="G75" t="s">
+        <v>19</v>
+      </c>
+      <c r="H75" t="s">
+        <v>88</v>
+      </c>
+      <c r="I75" t="s">
+        <v>30</v>
+      </c>
+      <c r="J75" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s">
+        <v>86</v>
+      </c>
+      <c r="D76" t="s">
+        <v>89</v>
+      </c>
+      <c r="E76" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" t="s">
+        <v>69</v>
+      </c>
+      <c r="G76" t="s">
+        <v>19</v>
+      </c>
+      <c r="H76" t="s">
+        <v>90</v>
+      </c>
+      <c r="I76" t="s">
+        <v>85</v>
+      </c>
+      <c r="J76" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1.872</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" t="s">
+        <v>86</v>
+      </c>
+      <c r="D77" t="s">
+        <v>89</v>
+      </c>
+      <c r="E77" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" t="s">
+        <v>69</v>
+      </c>
+      <c r="G77" t="s">
+        <v>19</v>
+      </c>
+      <c r="H77" t="s">
+        <v>90</v>
+      </c>
+      <c r="I77" t="s">
+        <v>26</v>
+      </c>
+      <c r="J77" t="n">
+        <v>57.33</v>
+      </c>
+      <c r="K77" t="n">
+        <v>2.57985</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
+        <v>86</v>
+      </c>
+      <c r="D78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E78" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" t="s">
+        <v>69</v>
+      </c>
+      <c r="G78" t="s">
+        <v>19</v>
+      </c>
+      <c r="H78" t="s">
+        <v>90</v>
+      </c>
+      <c r="I78" t="s">
+        <v>91</v>
+      </c>
+      <c r="J78" t="n">
+        <v>171.99</v>
+      </c>
+      <c r="K78" t="n">
+        <v>7.73955</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>86</v>
+      </c>
+      <c r="D79" t="s">
+        <v>89</v>
+      </c>
+      <c r="E79" t="s">
+        <v>29</v>
+      </c>
+      <c r="F79" t="s">
+        <v>69</v>
+      </c>
+      <c r="G79" t="s">
+        <v>19</v>
+      </c>
+      <c r="H79" t="s">
+        <v>90</v>
+      </c>
+      <c r="I79" t="s">
+        <v>30</v>
+      </c>
+      <c r="J79" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" t="s">
+        <v>92</v>
+      </c>
+      <c r="D80" t="s">
+        <v>93</v>
+      </c>
+      <c r="E80" t="s">
+        <v>29</v>
+      </c>
+      <c r="F80" t="s">
+        <v>69</v>
+      </c>
+      <c r="G80" t="s">
+        <v>19</v>
+      </c>
+      <c r="H80" t="s">
+        <v>94</v>
+      </c>
+      <c r="I80" t="s">
+        <v>30</v>
+      </c>
+      <c r="J80" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" t="s">
+        <v>92</v>
+      </c>
+      <c r="D81" t="s">
+        <v>95</v>
+      </c>
+      <c r="E81" t="s">
+        <v>29</v>
+      </c>
+      <c r="F81" t="s">
+        <v>69</v>
+      </c>
+      <c r="G81" t="s">
+        <v>19</v>
+      </c>
+      <c r="H81" t="s">
+        <v>96</v>
+      </c>
+      <c r="I81" t="s">
+        <v>97</v>
+      </c>
+      <c r="J81" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>92</v>
+      </c>
+      <c r="D82" t="s">
+        <v>95</v>
+      </c>
+      <c r="E82" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" t="s">
+        <v>69</v>
+      </c>
+      <c r="G82" t="s">
+        <v>19</v>
+      </c>
+      <c r="H82" t="s">
+        <v>96</v>
+      </c>
+      <c r="I82" t="s">
+        <v>85</v>
+      </c>
+      <c r="J82" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="K82" t="n">
+        <v>1.872</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" t="s">
+        <v>98</v>
+      </c>
+      <c r="D83" t="s">
+        <v>99</v>
+      </c>
+      <c r="E83" t="s">
+        <v>29</v>
+      </c>
+      <c r="F83" t="s">
+        <v>69</v>
+      </c>
+      <c r="G83" t="s">
+        <v>19</v>
+      </c>
+      <c r="H83" t="s">
+        <v>100</v>
+      </c>
+      <c r="I83" t="s">
+        <v>97</v>
+      </c>
+      <c r="J83" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s">
+        <v>98</v>
+      </c>
+      <c r="D84" t="s">
+        <v>99</v>
+      </c>
+      <c r="E84" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" t="s">
+        <v>69</v>
+      </c>
+      <c r="G84" t="s">
+        <v>19</v>
+      </c>
+      <c r="H84" t="s">
+        <v>100</v>
+      </c>
+      <c r="I84" t="s">
+        <v>27</v>
+      </c>
+      <c r="J84" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="K84" t="n">
+        <v>1.03185</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" t="s">
+        <v>98</v>
+      </c>
+      <c r="D85" t="s">
+        <v>101</v>
+      </c>
+      <c r="E85" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" t="s">
+        <v>69</v>
+      </c>
+      <c r="G85" t="s">
+        <v>19</v>
+      </c>
+      <c r="H85" t="s">
+        <v>102</v>
+      </c>
+      <c r="I85" t="s">
+        <v>27</v>
+      </c>
+      <c r="J85" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="K85" t="n">
+        <v>1.03185</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" t="s">
+        <v>98</v>
+      </c>
+      <c r="D86" t="s">
+        <v>101</v>
+      </c>
+      <c r="E86" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" t="s">
+        <v>69</v>
+      </c>
+      <c r="G86" t="s">
+        <v>19</v>
+      </c>
+      <c r="H86" t="s">
+        <v>102</v>
+      </c>
+      <c r="I86" t="s">
+        <v>45</v>
+      </c>
+      <c r="J86" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="K86" t="n">
+        <v>1.03185</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" t="s">
+        <v>98</v>
+      </c>
+      <c r="D87" t="s">
+        <v>101</v>
+      </c>
+      <c r="E87" t="s">
+        <v>29</v>
+      </c>
+      <c r="F87" t="s">
+        <v>69</v>
+      </c>
+      <c r="G87" t="s">
+        <v>19</v>
+      </c>
+      <c r="H87" t="s">
+        <v>102</v>
+      </c>
+      <c r="I87" t="s">
+        <v>30</v>
+      </c>
+      <c r="J87" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" t="s">
+        <v>98</v>
+      </c>
+      <c r="D88" t="s">
+        <v>101</v>
+      </c>
+      <c r="E88" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" t="s">
+        <v>69</v>
+      </c>
+      <c r="G88" t="s">
+        <v>19</v>
+      </c>
+      <c r="H88" t="s">
+        <v>102</v>
+      </c>
+      <c r="I88" t="s">
+        <v>28</v>
+      </c>
+      <c r="J88" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="K88" t="n">
+        <v>1.03185</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" t="s">
+        <v>103</v>
+      </c>
+      <c r="D89" t="s">
+        <v>104</v>
+      </c>
+      <c r="E89" t="s">
+        <v>29</v>
+      </c>
+      <c r="F89" t="s">
+        <v>69</v>
+      </c>
+      <c r="G89" t="s">
+        <v>19</v>
+      </c>
+      <c r="H89" t="s">
+        <v>105</v>
+      </c>
+      <c r="I89" t="s">
+        <v>30</v>
+      </c>
+      <c r="J89" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" t="s">
+        <v>103</v>
+      </c>
+      <c r="D90" t="s">
+        <v>104</v>
+      </c>
+      <c r="E90" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" t="s">
+        <v>69</v>
+      </c>
+      <c r="G90" t="s">
+        <v>19</v>
+      </c>
+      <c r="H90" t="s">
+        <v>105</v>
+      </c>
+      <c r="I90" t="s">
+        <v>85</v>
+      </c>
+      <c r="J90" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="K90" t="n">
+        <v>1.872</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" t="s">
+        <v>103</v>
+      </c>
+      <c r="D91" t="s">
+        <v>104</v>
+      </c>
+      <c r="E91" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" t="s">
+        <v>69</v>
+      </c>
+      <c r="G91" t="s">
+        <v>19</v>
+      </c>
+      <c r="H91" t="s">
+        <v>105</v>
+      </c>
+      <c r="I91" t="s">
+        <v>26</v>
+      </c>
+      <c r="J91" t="n">
+        <v>57.33</v>
+      </c>
+      <c r="K91" t="n">
+        <v>2.57985</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="L92" t="n">
+        <v>132.62220000000013</v>
       </c>
     </row>
   </sheetData>

--- a/ClinicaReportes/resources/Felix Ortega Dongo30888.xlsx
+++ b/ClinicaReportes/resources/Felix Ortega Dongo30888.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="70">
   <si>
     <t>CMP</t>
   </si>
@@ -215,124 +215,13 @@
     <t>2046832</t>
   </si>
   <si>
-    <t>13/04/2022</t>
-  </si>
-  <si>
-    <t>CUNEO TIBURCIO FACUNDO MARIANO</t>
-  </si>
-  <si>
-    <t>PLAN FAMILIAR SALUD SAN P</t>
-  </si>
-  <si>
-    <t>2058923</t>
-  </si>
-  <si>
-    <t>J500303</t>
-  </si>
-  <si>
-    <t>MENENDEZ GARCIA JUDY EDITH</t>
-  </si>
-  <si>
-    <t>2004121</t>
-  </si>
-  <si>
-    <t>04/07/2022</t>
-  </si>
-  <si>
-    <t>QUISPE AMAT PAULINA</t>
-  </si>
-  <si>
-    <t>2010435</t>
-  </si>
-  <si>
-    <t>SAGASTEGUI VASQUEZ TIRSA LIANA</t>
-  </si>
-  <si>
-    <t>2048787</t>
-  </si>
-  <si>
-    <t>06/07/2022</t>
-  </si>
-  <si>
-    <t>SARCA CHOQUEHUANCA JESSICA LEYLA</t>
-  </si>
-  <si>
-    <t>2010295</t>
-  </si>
-  <si>
-    <t>08/07/2022</t>
-  </si>
-  <si>
-    <t>ATARAMA BAZAN MGUEL ANGEL</t>
-  </si>
-  <si>
-    <t>2063965</t>
-  </si>
-  <si>
-    <t>G400118</t>
-  </si>
-  <si>
-    <t>18/07/2022</t>
-  </si>
-  <si>
-    <t>MEZA CONGONA FLOR ANGELA</t>
-  </si>
-  <si>
-    <t>2027583</t>
-  </si>
-  <si>
-    <t>PAUCARA APAZA MARINO MARIO</t>
-  </si>
-  <si>
-    <t>2050417</t>
-  </si>
-  <si>
-    <t>G400116</t>
-  </si>
-  <si>
-    <t>20/07/2022</t>
-  </si>
-  <si>
-    <t>YDME VERA WILSON JOEL</t>
-  </si>
-  <si>
-    <t>2024472</t>
-  </si>
-  <si>
-    <t>BELTRAN BRAVO HECTOR ALONSO</t>
-  </si>
-  <si>
-    <t>2040772</t>
-  </si>
-  <si>
-    <t>D020201</t>
-  </si>
-  <si>
-    <t>22/07/2022</t>
-  </si>
-  <si>
-    <t>CALIENES RIVERA OLGA PATRICIA YANET</t>
-  </si>
-  <si>
-    <t>2022352</t>
-  </si>
-  <si>
-    <t>SALAZAR CHAVEZ MANUEL MARIO</t>
-  </si>
-  <si>
-    <t>2039134</t>
-  </si>
-  <si>
-    <t>27/07/2022</t>
-  </si>
-  <si>
-    <t>LEON QUISPE EDGARD</t>
-  </si>
-  <si>
-    <t>2065884</t>
-  </si>
-  <si>
     <t>Subtotal</t>
+  </si>
+  <si>
+    <t>Comisión</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -377,11 +266,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:M92"/>
+  <dimension ref="B2:O59"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="6.83984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.23828125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="43.62109375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="10.8828125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="28.44921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="10.30078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.484375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="9.32421875" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="2">
       <c r="B2" t="s">
@@ -408,8 +307,14 @@
       <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
-        <v>106</v>
+      <c r="K2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3">
@@ -437,12 +342,15 @@
       <c r="I3" t="s">
         <v>15</v>
       </c>
-      <c r="J3" t="n">
-        <v>0.0</v>
-      </c>
       <c r="K3" t="n">
         <v>0.0</v>
       </c>
+      <c r="L3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
@@ -469,11 +377,14 @@
       <c r="I4" t="s">
         <v>21</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>247.02</v>
       </c>
-      <c r="K4" t="n">
-        <v>11.115900000000002</v>
+      <c r="L4" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="M4" t="n">
+        <v>235.9</v>
       </c>
     </row>
     <row r="5">
@@ -501,11 +412,14 @@
       <c r="I5" t="s">
         <v>21</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>267.62</v>
       </c>
-      <c r="K5" t="n">
-        <v>12.0429</v>
+      <c r="L5" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="M5" t="n">
+        <v>255.58</v>
       </c>
     </row>
     <row r="6">
@@ -533,11 +447,14 @@
       <c r="I6" t="s">
         <v>26</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>52.92</v>
       </c>
-      <c r="K6" t="n">
-        <v>2.3814</v>
+      <c r="L6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="M6" t="n">
+        <v>50.54</v>
       </c>
     </row>
     <row r="7">
@@ -565,11 +482,14 @@
       <c r="I7" t="s">
         <v>27</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>21.17</v>
       </c>
-      <c r="K7" t="n">
-        <v>0.9526500000000001</v>
+      <c r="L7" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="M7" t="n">
+        <v>20.22</v>
       </c>
     </row>
     <row r="8">
@@ -597,11 +517,14 @@
       <c r="I8" t="s">
         <v>28</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>21.17</v>
       </c>
-      <c r="K8" t="n">
-        <v>0.9526500000000001</v>
+      <c r="L8" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="M8" t="n">
+        <v>20.22</v>
       </c>
     </row>
     <row r="9">
@@ -629,11 +552,14 @@
       <c r="I9" t="s">
         <v>30</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>40.0</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>0.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="10">
@@ -661,11 +587,14 @@
       <c r="I10" t="s">
         <v>31</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>42.34</v>
       </c>
-      <c r="K10" t="n">
-        <v>1.9053000000000002</v>
+      <c r="L10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M10" t="n">
+        <v>40.43</v>
       </c>
     </row>
     <row r="11">
@@ -693,11 +622,14 @@
       <c r="I11" t="s">
         <v>30</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>40.0</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>0.0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="12">
@@ -725,11 +657,14 @@
       <c r="I12" t="s">
         <v>28</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>21.17</v>
       </c>
-      <c r="K12" t="n">
-        <v>0.9526500000000001</v>
+      <c r="L12" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="M12" t="n">
+        <v>20.22</v>
       </c>
     </row>
     <row r="13">
@@ -757,11 +692,14 @@
       <c r="I13" t="s">
         <v>34</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>19.42</v>
       </c>
-      <c r="K13" t="n">
-        <v>0.8739000000000001</v>
+      <c r="L13" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="M13" t="n">
+        <v>18.55</v>
       </c>
     </row>
     <row r="14">
@@ -789,11 +727,14 @@
       <c r="I14" t="s">
         <v>30</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>48.0</v>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>0.0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="15">
@@ -821,11 +762,14 @@
       <c r="I15" t="s">
         <v>21</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>267.62</v>
       </c>
-      <c r="K15" t="n">
-        <v>12.0429</v>
+      <c r="L15" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="M15" t="n">
+        <v>255.58</v>
       </c>
     </row>
     <row r="16">
@@ -853,11 +797,14 @@
       <c r="I16" t="s">
         <v>26</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>57.33</v>
       </c>
-      <c r="K16" t="n">
-        <v>2.57985</v>
+      <c r="L16" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="M16" t="n">
+        <v>54.75</v>
       </c>
     </row>
     <row r="17">
@@ -885,11 +832,14 @@
       <c r="I17" t="s">
         <v>42</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>48.0</v>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>0.0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="18">
@@ -917,11 +867,14 @@
       <c r="I18" t="s">
         <v>30</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>48.0</v>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>0.0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="19">
@@ -949,11 +902,14 @@
       <c r="I19" t="s">
         <v>28</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>22.93</v>
       </c>
-      <c r="K19" t="n">
-        <v>1.03185</v>
+      <c r="L19" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M19" t="n">
+        <v>21.9</v>
       </c>
     </row>
     <row r="20">
@@ -981,11 +937,14 @@
       <c r="I20" t="s">
         <v>27</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
         <v>22.93</v>
       </c>
-      <c r="K20" t="n">
-        <v>1.03185</v>
+      <c r="L20" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M20" t="n">
+        <v>21.9</v>
       </c>
     </row>
     <row r="21">
@@ -1013,11 +972,14 @@
       <c r="I21" t="s">
         <v>45</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>22.93</v>
       </c>
-      <c r="K21" t="n">
-        <v>1.03185</v>
+      <c r="L21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M21" t="n">
+        <v>21.9</v>
       </c>
     </row>
     <row r="22">
@@ -1045,11 +1007,14 @@
       <c r="I22" t="s">
         <v>46</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>22.93</v>
       </c>
-      <c r="K22" t="n">
-        <v>1.03185</v>
+      <c r="L22" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M22" t="n">
+        <v>21.9</v>
       </c>
     </row>
     <row r="23">
@@ -1077,11 +1042,14 @@
       <c r="I23" t="s">
         <v>30</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>48.0</v>
       </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
         <v>0.0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="24">
@@ -1109,11 +1077,14 @@
       <c r="I24" t="s">
         <v>34</v>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
         <v>21.04</v>
       </c>
-      <c r="K24" t="n">
-        <v>0.9468</v>
+      <c r="L24" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="M24" t="n">
+        <v>20.09</v>
       </c>
     </row>
     <row r="25">
@@ -1141,11 +1112,14 @@
       <c r="I25" t="s">
         <v>30</v>
       </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
         <v>48.0</v>
       </c>
-      <c r="K25" t="n">
+      <c r="L25" t="n">
         <v>0.0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="26">
@@ -1173,11 +1147,14 @@
       <c r="I26" t="s">
         <v>30</v>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
         <v>48.0</v>
       </c>
-      <c r="K26" t="n">
+      <c r="L26" t="n">
         <v>0.0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="27">
@@ -1205,11 +1182,14 @@
       <c r="I27" t="s">
         <v>34</v>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
         <v>21.04</v>
       </c>
-      <c r="K27" t="n">
-        <v>0.9468</v>
+      <c r="L27" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="M27" t="n">
+        <v>20.09</v>
       </c>
     </row>
     <row r="28">
@@ -1237,11 +1217,14 @@
       <c r="I28" t="s">
         <v>21</v>
       </c>
-      <c r="J28" t="n">
+      <c r="K28" t="n">
         <v>267.62</v>
       </c>
-      <c r="K28" t="n">
-        <v>12.0429</v>
+      <c r="L28" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="M28" t="n">
+        <v>255.58</v>
       </c>
     </row>
     <row r="29">
@@ -1269,11 +1252,14 @@
       <c r="I29" t="s">
         <v>46</v>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
         <v>22.93</v>
       </c>
-      <c r="K29" t="n">
-        <v>1.03185</v>
+      <c r="L29" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M29" t="n">
+        <v>21.9</v>
       </c>
     </row>
     <row r="30">
@@ -1301,11 +1287,14 @@
       <c r="I30" t="s">
         <v>45</v>
       </c>
-      <c r="J30" t="n">
+      <c r="K30" t="n">
         <v>22.93</v>
       </c>
-      <c r="K30" t="n">
-        <v>1.03185</v>
+      <c r="L30" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M30" t="n">
+        <v>21.9</v>
       </c>
     </row>
     <row r="31">
@@ -1333,11 +1322,14 @@
       <c r="I31" t="s">
         <v>27</v>
       </c>
-      <c r="J31" t="n">
+      <c r="K31" t="n">
         <v>22.93</v>
       </c>
-      <c r="K31" t="n">
-        <v>1.03185</v>
+      <c r="L31" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M31" t="n">
+        <v>21.9</v>
       </c>
     </row>
     <row r="32">
@@ -1365,11 +1357,14 @@
       <c r="I32" t="s">
         <v>28</v>
       </c>
-      <c r="J32" t="n">
+      <c r="K32" t="n">
         <v>22.93</v>
       </c>
-      <c r="K32" t="n">
-        <v>1.03185</v>
+      <c r="L32" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M32" t="n">
+        <v>21.9</v>
       </c>
     </row>
     <row r="33">
@@ -1397,11 +1392,14 @@
       <c r="I33" t="s">
         <v>30</v>
       </c>
-      <c r="J33" t="n">
+      <c r="K33" t="n">
         <v>48.0</v>
       </c>
-      <c r="K33" t="n">
+      <c r="L33" t="n">
         <v>0.0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="34">
@@ -1429,11 +1427,14 @@
       <c r="I34" t="s">
         <v>45</v>
       </c>
-      <c r="J34" t="n">
+      <c r="K34" t="n">
         <v>22.93</v>
       </c>
-      <c r="K34" t="n">
-        <v>1.03185</v>
+      <c r="L34" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M34" t="n">
+        <v>21.9</v>
       </c>
     </row>
     <row r="35">
@@ -1461,11 +1462,14 @@
       <c r="I35" t="s">
         <v>34</v>
       </c>
-      <c r="J35" t="n">
+      <c r="K35" t="n">
         <v>21.04</v>
       </c>
-      <c r="K35" t="n">
-        <v>0.9468</v>
+      <c r="L35" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="M35" t="n">
+        <v>20.09</v>
       </c>
     </row>
     <row r="36">
@@ -1493,11 +1497,14 @@
       <c r="I36" t="s">
         <v>28</v>
       </c>
-      <c r="J36" t="n">
+      <c r="K36" t="n">
         <v>22.93</v>
       </c>
-      <c r="K36" t="n">
-        <v>1.03185</v>
+      <c r="L36" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M36" t="n">
+        <v>21.9</v>
       </c>
     </row>
     <row r="37">
@@ -1525,11 +1532,14 @@
       <c r="I37" t="s">
         <v>45</v>
       </c>
-      <c r="J37" t="n">
+      <c r="K37" t="n">
         <v>22.93</v>
       </c>
-      <c r="K37" t="n">
-        <v>1.03185</v>
+      <c r="L37" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M37" t="n">
+        <v>21.9</v>
       </c>
     </row>
     <row r="38">
@@ -1557,11 +1567,14 @@
       <c r="I38" t="s">
         <v>27</v>
       </c>
-      <c r="J38" t="n">
+      <c r="K38" t="n">
         <v>22.93</v>
       </c>
-      <c r="K38" t="n">
-        <v>1.03185</v>
+      <c r="L38" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M38" t="n">
+        <v>21.9</v>
       </c>
     </row>
     <row r="39">
@@ -1589,11 +1602,14 @@
       <c r="I39" t="s">
         <v>30</v>
       </c>
-      <c r="J39" t="n">
+      <c r="K39" t="n">
         <v>48.0</v>
       </c>
-      <c r="K39" t="n">
+      <c r="L39" t="n">
         <v>0.0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="40">
@@ -1621,11 +1637,14 @@
       <c r="I40" t="s">
         <v>28</v>
       </c>
-      <c r="J40" t="n">
+      <c r="K40" t="n">
         <v>22.93</v>
       </c>
-      <c r="K40" t="n">
-        <v>1.03185</v>
+      <c r="L40" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M40" t="n">
+        <v>21.9</v>
       </c>
     </row>
     <row r="41">
@@ -1653,11 +1672,14 @@
       <c r="I41" t="s">
         <v>30</v>
       </c>
-      <c r="J41" t="n">
+      <c r="K41" t="n">
         <v>48.0</v>
       </c>
-      <c r="K41" t="n">
+      <c r="L41" t="n">
         <v>0.0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="42">
@@ -1685,11 +1707,14 @@
       <c r="I42" t="s">
         <v>45</v>
       </c>
-      <c r="J42" t="n">
+      <c r="K42" t="n">
         <v>22.93</v>
       </c>
-      <c r="K42" t="n">
-        <v>1.03185</v>
+      <c r="L42" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M42" t="n">
+        <v>21.9</v>
       </c>
     </row>
     <row r="43">
@@ -1717,11 +1742,14 @@
       <c r="I43" t="s">
         <v>34</v>
       </c>
-      <c r="J43" t="n">
+      <c r="K43" t="n">
         <v>21.04</v>
       </c>
-      <c r="K43" t="n">
-        <v>0.9468</v>
+      <c r="L43" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="M43" t="n">
+        <v>20.09</v>
       </c>
     </row>
     <row r="44">
@@ -1749,11 +1777,14 @@
       <c r="I44" t="s">
         <v>28</v>
       </c>
-      <c r="J44" t="n">
+      <c r="K44" t="n">
         <v>22.93</v>
       </c>
-      <c r="K44" t="n">
-        <v>1.03185</v>
+      <c r="L44" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M44" t="n">
+        <v>21.9</v>
       </c>
     </row>
     <row r="45">
@@ -1781,11 +1812,14 @@
       <c r="I45" t="s">
         <v>27</v>
       </c>
-      <c r="J45" t="n">
+      <c r="K45" t="n">
         <v>22.93</v>
       </c>
-      <c r="K45" t="n">
-        <v>1.03185</v>
+      <c r="L45" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M45" t="n">
+        <v>21.9</v>
       </c>
     </row>
     <row r="46">
@@ -1813,11 +1847,14 @@
       <c r="I46" t="s">
         <v>28</v>
       </c>
-      <c r="J46" t="n">
+      <c r="K46" t="n">
         <v>22.93</v>
       </c>
-      <c r="K46" t="n">
-        <v>1.03185</v>
+      <c r="L46" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M46" t="n">
+        <v>21.9</v>
       </c>
     </row>
     <row r="47">
@@ -1845,11 +1882,14 @@
       <c r="I47" t="s">
         <v>34</v>
       </c>
-      <c r="J47" t="n">
+      <c r="K47" t="n">
         <v>21.04</v>
       </c>
-      <c r="K47" t="n">
-        <v>0.9468</v>
+      <c r="L47" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="M47" t="n">
+        <v>20.09</v>
       </c>
     </row>
     <row r="48">
@@ -1877,11 +1917,14 @@
       <c r="I48" t="s">
         <v>30</v>
       </c>
-      <c r="J48" t="n">
+      <c r="K48" t="n">
         <v>48.0</v>
       </c>
-      <c r="K48" t="n">
+      <c r="L48" t="n">
         <v>0.0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="49">
@@ -1909,11 +1952,14 @@
       <c r="I49" t="s">
         <v>27</v>
       </c>
-      <c r="J49" t="n">
+      <c r="K49" t="n">
         <v>22.93</v>
       </c>
-      <c r="K49" t="n">
-        <v>1.03185</v>
+      <c r="L49" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M49" t="n">
+        <v>21.9</v>
       </c>
     </row>
     <row r="50">
@@ -1941,11 +1987,14 @@
       <c r="I50" t="s">
         <v>34</v>
       </c>
-      <c r="J50" t="n">
+      <c r="K50" t="n">
         <v>21.04</v>
       </c>
-      <c r="K50" t="n">
-        <v>0.9468</v>
+      <c r="L50" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="M50" t="n">
+        <v>20.09</v>
       </c>
     </row>
     <row r="51">
@@ -1973,11 +2022,14 @@
       <c r="I51" t="s">
         <v>30</v>
       </c>
-      <c r="J51" t="n">
+      <c r="K51" t="n">
         <v>48.0</v>
       </c>
-      <c r="K51" t="n">
+      <c r="L51" t="n">
         <v>0.0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="52">
@@ -2005,11 +2057,14 @@
       <c r="I52" t="s">
         <v>28</v>
       </c>
-      <c r="J52" t="n">
+      <c r="K52" t="n">
         <v>22.93</v>
       </c>
-      <c r="K52" t="n">
-        <v>1.03185</v>
+      <c r="L52" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M52" t="n">
+        <v>21.9</v>
       </c>
     </row>
     <row r="53">
@@ -2037,11 +2092,14 @@
       <c r="I53" t="s">
         <v>30</v>
       </c>
-      <c r="J53" t="n">
+      <c r="K53" t="n">
         <v>40.0</v>
       </c>
-      <c r="K53" t="n">
+      <c r="L53" t="n">
         <v>0.0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="54">
@@ -2069,11 +2127,14 @@
       <c r="I54" t="s">
         <v>26</v>
       </c>
-      <c r="J54" t="n">
+      <c r="K54" t="n">
         <v>51.82</v>
       </c>
-      <c r="K54" t="n">
-        <v>2.3319</v>
+      <c r="L54" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="M54" t="n">
+        <v>49.49</v>
       </c>
     </row>
     <row r="55">
@@ -2101,11 +2162,14 @@
       <c r="I55" t="s">
         <v>21</v>
       </c>
-      <c r="J55" t="n">
+      <c r="K55" t="n">
         <v>241.88</v>
       </c>
-      <c r="K55" t="n">
-        <v>10.8846</v>
+      <c r="L55" t="n">
+        <v>10.88</v>
+      </c>
+      <c r="M55" t="n">
+        <v>231.0</v>
       </c>
     </row>
     <row r="56">
@@ -2133,11 +2197,14 @@
       <c r="I56" t="s">
         <v>45</v>
       </c>
-      <c r="J56" t="n">
+      <c r="K56" t="n">
         <v>20.73</v>
       </c>
-      <c r="K56" t="n">
-        <v>0.93285</v>
+      <c r="L56" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="M56" t="n">
+        <v>19.8</v>
       </c>
     </row>
     <row r="57">
@@ -2165,11 +2232,14 @@
       <c r="I57" t="s">
         <v>27</v>
       </c>
-      <c r="J57" t="n">
+      <c r="K57" t="n">
         <v>20.73</v>
       </c>
-      <c r="K57" t="n">
-        <v>0.93285</v>
+      <c r="L57" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="M57" t="n">
+        <v>19.8</v>
       </c>
     </row>
     <row r="58">
@@ -2197,1072 +2267,19 @@
       <c r="I58" t="s">
         <v>28</v>
       </c>
-      <c r="J58" t="n">
+      <c r="K58" t="n">
         <v>20.73</v>
       </c>
-      <c r="K58" t="n">
-        <v>0.93285</v>
+      <c r="L58" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="M58" t="n">
+        <v>19.8</v>
       </c>
     </row>
     <row r="59">
-      <c r="B59" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" t="s">
-        <v>67</v>
-      </c>
-      <c r="D59" t="s">
-        <v>68</v>
-      </c>
-      <c r="E59" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" t="s">
-        <v>69</v>
-      </c>
-      <c r="G59" t="s">
-        <v>13</v>
-      </c>
-      <c r="H59" t="s">
-        <v>70</v>
-      </c>
-      <c r="I59" t="s">
-        <v>28</v>
-      </c>
-      <c r="J59" t="n">
-        <v>17.64</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.7938</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="B60" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" t="s">
-        <v>67</v>
-      </c>
-      <c r="D60" t="s">
-        <v>68</v>
-      </c>
-      <c r="E60" t="s">
-        <v>29</v>
-      </c>
-      <c r="F60" t="s">
-        <v>69</v>
-      </c>
-      <c r="G60" t="s">
-        <v>13</v>
-      </c>
-      <c r="H60" t="s">
-        <v>70</v>
-      </c>
-      <c r="I60" t="s">
-        <v>71</v>
-      </c>
-      <c r="J60" t="n">
-        <v>54.0</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="B61" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" t="s">
-        <v>63</v>
-      </c>
-      <c r="D61" t="s">
-        <v>72</v>
-      </c>
-      <c r="E61" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" t="s">
-        <v>69</v>
-      </c>
-      <c r="G61" t="s">
-        <v>19</v>
-      </c>
-      <c r="H61" t="s">
-        <v>73</v>
-      </c>
-      <c r="I61" t="s">
-        <v>27</v>
-      </c>
-      <c r="J61" t="n">
-        <v>22.93</v>
-      </c>
-      <c r="K61" t="n">
-        <v>1.03185</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="B62" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" t="s">
-        <v>63</v>
-      </c>
-      <c r="D62" t="s">
-        <v>72</v>
-      </c>
-      <c r="E62" t="s">
-        <v>11</v>
-      </c>
-      <c r="F62" t="s">
-        <v>69</v>
-      </c>
-      <c r="G62" t="s">
-        <v>19</v>
-      </c>
-      <c r="H62" t="s">
-        <v>73</v>
-      </c>
-      <c r="I62" t="s">
-        <v>28</v>
-      </c>
-      <c r="J62" t="n">
-        <v>22.93</v>
-      </c>
-      <c r="K62" t="n">
-        <v>1.03185</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="B63" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" t="s">
-        <v>63</v>
-      </c>
-      <c r="D63" t="s">
-        <v>72</v>
-      </c>
-      <c r="E63" t="s">
-        <v>29</v>
-      </c>
-      <c r="F63" t="s">
-        <v>69</v>
-      </c>
-      <c r="G63" t="s">
-        <v>19</v>
-      </c>
-      <c r="H63" t="s">
-        <v>73</v>
-      </c>
-      <c r="I63" t="s">
-        <v>30</v>
-      </c>
-      <c r="J63" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="B64" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" t="s">
-        <v>74</v>
-      </c>
-      <c r="D64" t="s">
-        <v>75</v>
-      </c>
-      <c r="E64" t="s">
-        <v>29</v>
-      </c>
-      <c r="F64" t="s">
-        <v>69</v>
-      </c>
-      <c r="G64" t="s">
-        <v>19</v>
-      </c>
-      <c r="H64" t="s">
-        <v>76</v>
-      </c>
-      <c r="I64" t="s">
-        <v>30</v>
-      </c>
-      <c r="J64" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="B65" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" t="s">
-        <v>74</v>
-      </c>
-      <c r="D65" t="s">
-        <v>75</v>
-      </c>
-      <c r="E65" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" t="s">
-        <v>69</v>
-      </c>
-      <c r="G65" t="s">
-        <v>19</v>
-      </c>
-      <c r="H65" t="s">
-        <v>76</v>
-      </c>
-      <c r="I65" t="s">
-        <v>27</v>
-      </c>
-      <c r="J65" t="n">
-        <v>22.93</v>
-      </c>
-      <c r="K65" t="n">
-        <v>1.03185</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="B66" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" t="s">
-        <v>74</v>
-      </c>
-      <c r="D66" t="s">
-        <v>77</v>
-      </c>
-      <c r="E66" t="s">
-        <v>29</v>
-      </c>
-      <c r="F66" t="s">
-        <v>69</v>
-      </c>
-      <c r="G66" t="s">
-        <v>19</v>
-      </c>
-      <c r="H66" t="s">
-        <v>78</v>
-      </c>
-      <c r="I66" t="s">
-        <v>30</v>
-      </c>
-      <c r="J66" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="B67" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" t="s">
-        <v>79</v>
-      </c>
-      <c r="D67" t="s">
-        <v>80</v>
-      </c>
-      <c r="E67" t="s">
-        <v>29</v>
-      </c>
-      <c r="F67" t="s">
-        <v>69</v>
-      </c>
-      <c r="G67" t="s">
-        <v>19</v>
-      </c>
-      <c r="H67" t="s">
-        <v>81</v>
-      </c>
-      <c r="I67" t="s">
-        <v>30</v>
-      </c>
-      <c r="J67" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="B68" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" t="s">
-        <v>79</v>
-      </c>
-      <c r="D68" t="s">
-        <v>80</v>
-      </c>
-      <c r="E68" t="s">
-        <v>11</v>
-      </c>
-      <c r="F68" t="s">
-        <v>69</v>
-      </c>
-      <c r="G68" t="s">
-        <v>19</v>
-      </c>
-      <c r="H68" t="s">
-        <v>81</v>
-      </c>
-      <c r="I68" t="s">
-        <v>45</v>
-      </c>
-      <c r="J68" t="n">
-        <v>22.93</v>
-      </c>
-      <c r="K68" t="n">
-        <v>1.03185</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="B69" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" t="s">
-        <v>79</v>
-      </c>
-      <c r="D69" t="s">
-        <v>80</v>
-      </c>
-      <c r="E69" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" t="s">
-        <v>69</v>
-      </c>
-      <c r="G69" t="s">
-        <v>19</v>
-      </c>
-      <c r="H69" t="s">
-        <v>81</v>
-      </c>
-      <c r="I69" t="s">
-        <v>34</v>
-      </c>
-      <c r="J69" t="n">
-        <v>21.04</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.9468</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="B70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" t="s">
-        <v>79</v>
-      </c>
-      <c r="D70" t="s">
-        <v>80</v>
-      </c>
-      <c r="E70" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70" t="s">
-        <v>69</v>
-      </c>
-      <c r="G70" t="s">
-        <v>19</v>
-      </c>
-      <c r="H70" t="s">
-        <v>81</v>
-      </c>
-      <c r="I70" t="s">
-        <v>28</v>
-      </c>
-      <c r="J70" t="n">
-        <v>22.93</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1.03185</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="B71" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" t="s">
-        <v>82</v>
-      </c>
-      <c r="D71" t="s">
-        <v>83</v>
-      </c>
-      <c r="E71" t="s">
-        <v>29</v>
-      </c>
-      <c r="F71" t="s">
-        <v>69</v>
-      </c>
-      <c r="G71" t="s">
-        <v>19</v>
-      </c>
-      <c r="H71" t="s">
-        <v>84</v>
-      </c>
-      <c r="I71" t="s">
-        <v>30</v>
-      </c>
-      <c r="J71" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="B72" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" t="s">
-        <v>82</v>
-      </c>
-      <c r="D72" t="s">
-        <v>83</v>
-      </c>
-      <c r="E72" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" t="s">
-        <v>69</v>
-      </c>
-      <c r="G72" t="s">
-        <v>19</v>
-      </c>
-      <c r="H72" t="s">
-        <v>84</v>
-      </c>
-      <c r="I72" t="s">
-        <v>85</v>
-      </c>
-      <c r="J72" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="K72" t="n">
-        <v>1.872</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="B73" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" t="s">
-        <v>86</v>
-      </c>
-      <c r="D73" t="s">
-        <v>87</v>
-      </c>
-      <c r="E73" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" t="s">
-        <v>69</v>
-      </c>
-      <c r="G73" t="s">
-        <v>19</v>
-      </c>
-      <c r="H73" t="s">
-        <v>88</v>
-      </c>
-      <c r="I73" t="s">
-        <v>27</v>
-      </c>
-      <c r="J73" t="n">
-        <v>22.93</v>
-      </c>
-      <c r="K73" t="n">
-        <v>1.03185</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="B74" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" t="s">
-        <v>86</v>
-      </c>
-      <c r="D74" t="s">
-        <v>87</v>
-      </c>
-      <c r="E74" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" t="s">
-        <v>69</v>
-      </c>
-      <c r="G74" t="s">
-        <v>19</v>
-      </c>
-      <c r="H74" t="s">
-        <v>88</v>
-      </c>
-      <c r="I74" t="s">
-        <v>28</v>
-      </c>
-      <c r="J74" t="n">
-        <v>22.93</v>
-      </c>
-      <c r="K74" t="n">
-        <v>1.03185</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="B75" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" t="s">
-        <v>86</v>
-      </c>
-      <c r="D75" t="s">
-        <v>87</v>
-      </c>
-      <c r="E75" t="s">
-        <v>29</v>
-      </c>
-      <c r="F75" t="s">
-        <v>69</v>
-      </c>
-      <c r="G75" t="s">
-        <v>19</v>
-      </c>
-      <c r="H75" t="s">
-        <v>88</v>
-      </c>
-      <c r="I75" t="s">
-        <v>30</v>
-      </c>
-      <c r="J75" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="B76" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" t="s">
-        <v>86</v>
-      </c>
-      <c r="D76" t="s">
-        <v>89</v>
-      </c>
-      <c r="E76" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76" t="s">
-        <v>69</v>
-      </c>
-      <c r="G76" t="s">
-        <v>19</v>
-      </c>
-      <c r="H76" t="s">
-        <v>90</v>
-      </c>
-      <c r="I76" t="s">
-        <v>85</v>
-      </c>
-      <c r="J76" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="K76" t="n">
-        <v>1.872</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="B77" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" t="s">
-        <v>86</v>
-      </c>
-      <c r="D77" t="s">
-        <v>89</v>
-      </c>
-      <c r="E77" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" t="s">
-        <v>69</v>
-      </c>
-      <c r="G77" t="s">
-        <v>19</v>
-      </c>
-      <c r="H77" t="s">
-        <v>90</v>
-      </c>
-      <c r="I77" t="s">
-        <v>26</v>
-      </c>
-      <c r="J77" t="n">
-        <v>57.33</v>
-      </c>
-      <c r="K77" t="n">
-        <v>2.57985</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="B78" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" t="s">
-        <v>86</v>
-      </c>
-      <c r="D78" t="s">
-        <v>89</v>
-      </c>
-      <c r="E78" t="s">
-        <v>11</v>
-      </c>
-      <c r="F78" t="s">
-        <v>69</v>
-      </c>
-      <c r="G78" t="s">
-        <v>19</v>
-      </c>
-      <c r="H78" t="s">
-        <v>90</v>
-      </c>
-      <c r="I78" t="s">
-        <v>91</v>
-      </c>
-      <c r="J78" t="n">
-        <v>171.99</v>
-      </c>
-      <c r="K78" t="n">
-        <v>7.73955</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="B79" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" t="s">
-        <v>86</v>
-      </c>
-      <c r="D79" t="s">
-        <v>89</v>
-      </c>
-      <c r="E79" t="s">
-        <v>29</v>
-      </c>
-      <c r="F79" t="s">
-        <v>69</v>
-      </c>
-      <c r="G79" t="s">
-        <v>19</v>
-      </c>
-      <c r="H79" t="s">
-        <v>90</v>
-      </c>
-      <c r="I79" t="s">
-        <v>30</v>
-      </c>
-      <c r="J79" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="B80" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" t="s">
-        <v>92</v>
-      </c>
-      <c r="D80" t="s">
-        <v>93</v>
-      </c>
-      <c r="E80" t="s">
-        <v>29</v>
-      </c>
-      <c r="F80" t="s">
-        <v>69</v>
-      </c>
-      <c r="G80" t="s">
-        <v>19</v>
-      </c>
-      <c r="H80" t="s">
-        <v>94</v>
-      </c>
-      <c r="I80" t="s">
-        <v>30</v>
-      </c>
-      <c r="J80" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="B81" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" t="s">
-        <v>92</v>
-      </c>
-      <c r="D81" t="s">
-        <v>95</v>
-      </c>
-      <c r="E81" t="s">
-        <v>29</v>
-      </c>
-      <c r="F81" t="s">
-        <v>69</v>
-      </c>
-      <c r="G81" t="s">
-        <v>19</v>
-      </c>
-      <c r="H81" t="s">
-        <v>96</v>
-      </c>
-      <c r="I81" t="s">
-        <v>97</v>
-      </c>
-      <c r="J81" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="B82" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82" t="s">
-        <v>92</v>
-      </c>
-      <c r="D82" t="s">
-        <v>95</v>
-      </c>
-      <c r="E82" t="s">
-        <v>11</v>
-      </c>
-      <c r="F82" t="s">
-        <v>69</v>
-      </c>
-      <c r="G82" t="s">
-        <v>19</v>
-      </c>
-      <c r="H82" t="s">
-        <v>96</v>
-      </c>
-      <c r="I82" t="s">
-        <v>85</v>
-      </c>
-      <c r="J82" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="K82" t="n">
-        <v>1.872</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="B83" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" t="s">
-        <v>98</v>
-      </c>
-      <c r="D83" t="s">
-        <v>99</v>
-      </c>
-      <c r="E83" t="s">
-        <v>29</v>
-      </c>
-      <c r="F83" t="s">
-        <v>69</v>
-      </c>
-      <c r="G83" t="s">
-        <v>19</v>
-      </c>
-      <c r="H83" t="s">
-        <v>100</v>
-      </c>
-      <c r="I83" t="s">
-        <v>97</v>
-      </c>
-      <c r="J83" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="B84" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" t="s">
-        <v>98</v>
-      </c>
-      <c r="D84" t="s">
-        <v>99</v>
-      </c>
-      <c r="E84" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" t="s">
-        <v>69</v>
-      </c>
-      <c r="G84" t="s">
-        <v>19</v>
-      </c>
-      <c r="H84" t="s">
-        <v>100</v>
-      </c>
-      <c r="I84" t="s">
-        <v>27</v>
-      </c>
-      <c r="J84" t="n">
-        <v>22.93</v>
-      </c>
-      <c r="K84" t="n">
-        <v>1.03185</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="B85" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" t="s">
-        <v>98</v>
-      </c>
-      <c r="D85" t="s">
-        <v>101</v>
-      </c>
-      <c r="E85" t="s">
-        <v>11</v>
-      </c>
-      <c r="F85" t="s">
-        <v>69</v>
-      </c>
-      <c r="G85" t="s">
-        <v>19</v>
-      </c>
-      <c r="H85" t="s">
-        <v>102</v>
-      </c>
-      <c r="I85" t="s">
-        <v>27</v>
-      </c>
-      <c r="J85" t="n">
-        <v>22.93</v>
-      </c>
-      <c r="K85" t="n">
-        <v>1.03185</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="B86" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" t="s">
-        <v>98</v>
-      </c>
-      <c r="D86" t="s">
-        <v>101</v>
-      </c>
-      <c r="E86" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86" t="s">
-        <v>69</v>
-      </c>
-      <c r="G86" t="s">
-        <v>19</v>
-      </c>
-      <c r="H86" t="s">
-        <v>102</v>
-      </c>
-      <c r="I86" t="s">
-        <v>45</v>
-      </c>
-      <c r="J86" t="n">
-        <v>22.93</v>
-      </c>
-      <c r="K86" t="n">
-        <v>1.03185</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="B87" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" t="s">
-        <v>98</v>
-      </c>
-      <c r="D87" t="s">
-        <v>101</v>
-      </c>
-      <c r="E87" t="s">
-        <v>29</v>
-      </c>
-      <c r="F87" t="s">
-        <v>69</v>
-      </c>
-      <c r="G87" t="s">
-        <v>19</v>
-      </c>
-      <c r="H87" t="s">
-        <v>102</v>
-      </c>
-      <c r="I87" t="s">
-        <v>30</v>
-      </c>
-      <c r="J87" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="B88" t="s">
-        <v>8</v>
-      </c>
-      <c r="C88" t="s">
-        <v>98</v>
-      </c>
-      <c r="D88" t="s">
-        <v>101</v>
-      </c>
-      <c r="E88" t="s">
-        <v>11</v>
-      </c>
-      <c r="F88" t="s">
-        <v>69</v>
-      </c>
-      <c r="G88" t="s">
-        <v>19</v>
-      </c>
-      <c r="H88" t="s">
-        <v>102</v>
-      </c>
-      <c r="I88" t="s">
-        <v>28</v>
-      </c>
-      <c r="J88" t="n">
-        <v>22.93</v>
-      </c>
-      <c r="K88" t="n">
-        <v>1.03185</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="B89" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" t="s">
-        <v>103</v>
-      </c>
-      <c r="D89" t="s">
-        <v>104</v>
-      </c>
-      <c r="E89" t="s">
-        <v>29</v>
-      </c>
-      <c r="F89" t="s">
-        <v>69</v>
-      </c>
-      <c r="G89" t="s">
-        <v>19</v>
-      </c>
-      <c r="H89" t="s">
-        <v>105</v>
-      </c>
-      <c r="I89" t="s">
-        <v>30</v>
-      </c>
-      <c r="J89" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="B90" t="s">
-        <v>8</v>
-      </c>
-      <c r="C90" t="s">
-        <v>103</v>
-      </c>
-      <c r="D90" t="s">
-        <v>104</v>
-      </c>
-      <c r="E90" t="s">
-        <v>11</v>
-      </c>
-      <c r="F90" t="s">
-        <v>69</v>
-      </c>
-      <c r="G90" t="s">
-        <v>19</v>
-      </c>
-      <c r="H90" t="s">
-        <v>105</v>
-      </c>
-      <c r="I90" t="s">
-        <v>85</v>
-      </c>
-      <c r="J90" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="K90" t="n">
-        <v>1.872</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="B91" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" t="s">
-        <v>103</v>
-      </c>
-      <c r="D91" t="s">
-        <v>104</v>
-      </c>
-      <c r="E91" t="s">
-        <v>11</v>
-      </c>
-      <c r="F91" t="s">
-        <v>69</v>
-      </c>
-      <c r="G91" t="s">
-        <v>19</v>
-      </c>
-      <c r="H91" t="s">
-        <v>105</v>
-      </c>
-      <c r="I91" t="s">
-        <v>26</v>
-      </c>
-      <c r="J91" t="n">
-        <v>57.33</v>
-      </c>
-      <c r="K91" t="n">
-        <v>2.57985</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="L92" t="n">
-        <v>132.62220000000013</v>
+      <c r="N59" t="n">
+        <v>2752.100000000002</v>
       </c>
     </row>
   </sheetData>

--- a/ClinicaReportes/resources/Felix Ortega Dongo30888.xlsx
+++ b/ClinicaReportes/resources/Felix Ortega Dongo30888.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="70">
   <si>
     <t>CMP</t>
   </si>
@@ -266,7 +266,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:O59"/>
+  <dimension ref="B2:O116"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -280,6 +280,10 @@
     <col min="7" max="7" width="10.30078125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="14.484375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="9.32421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="8.48046875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="9.40625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="8.48046875" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="8.578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -378,13 +382,13 @@
         <v>21</v>
       </c>
       <c r="K4" t="n">
-        <v>247.02</v>
+        <v>-247.02</v>
       </c>
       <c r="L4" t="n">
         <v>11.12</v>
       </c>
       <c r="M4" t="n">
-        <v>235.9</v>
+        <v>-258.14</v>
       </c>
     </row>
     <row r="5">
@@ -2278,8 +2282,2003 @@
       </c>
     </row>
     <row r="59">
-      <c r="N59" t="n">
-        <v>2752.100000000002</v>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>15</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60" t="s">
+        <v>19</v>
+      </c>
+      <c r="H60" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" t="s">
+        <v>21</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-247.02</v>
+      </c>
+      <c r="L60" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-258.14</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" t="s">
+        <v>19</v>
+      </c>
+      <c r="H61" t="s">
+        <v>20</v>
+      </c>
+      <c r="I61" t="s">
+        <v>21</v>
+      </c>
+      <c r="K61" t="n">
+        <v>247.02</v>
+      </c>
+      <c r="L61" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="M61" t="n">
+        <v>235.9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" t="s">
+        <v>13</v>
+      </c>
+      <c r="H62" t="s">
+        <v>24</v>
+      </c>
+      <c r="I62" t="s">
+        <v>21</v>
+      </c>
+      <c r="K62" t="n">
+        <v>267.62</v>
+      </c>
+      <c r="L62" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="M62" t="n">
+        <v>255.58</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" t="s">
+        <v>19</v>
+      </c>
+      <c r="H63" t="s">
+        <v>20</v>
+      </c>
+      <c r="I63" t="s">
+        <v>26</v>
+      </c>
+      <c r="K63" t="n">
+        <v>52.92</v>
+      </c>
+      <c r="L63" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="M63" t="n">
+        <v>50.54</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" t="s">
+        <v>19</v>
+      </c>
+      <c r="H64" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" t="s">
+        <v>27</v>
+      </c>
+      <c r="K64" t="n">
+        <v>21.17</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="M64" t="n">
+        <v>20.22</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" t="s">
+        <v>19</v>
+      </c>
+      <c r="H65" t="s">
+        <v>20</v>
+      </c>
+      <c r="I65" t="s">
+        <v>28</v>
+      </c>
+      <c r="K65" t="n">
+        <v>21.17</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="M65" t="n">
+        <v>20.22</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" t="s">
+        <v>29</v>
+      </c>
+      <c r="F66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" t="s">
+        <v>19</v>
+      </c>
+      <c r="H66" t="s">
+        <v>20</v>
+      </c>
+      <c r="I66" t="s">
+        <v>30</v>
+      </c>
+      <c r="K66" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" t="s">
+        <v>18</v>
+      </c>
+      <c r="G67" t="s">
+        <v>19</v>
+      </c>
+      <c r="H67" t="s">
+        <v>20</v>
+      </c>
+      <c r="I67" t="s">
+        <v>31</v>
+      </c>
+      <c r="K67" t="n">
+        <v>42.34</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M67" t="n">
+        <v>40.43</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" t="s">
+        <v>32</v>
+      </c>
+      <c r="E68" t="s">
+        <v>29</v>
+      </c>
+      <c r="F68" t="s">
+        <v>18</v>
+      </c>
+      <c r="G68" t="s">
+        <v>19</v>
+      </c>
+      <c r="H68" t="s">
+        <v>33</v>
+      </c>
+      <c r="I68" t="s">
+        <v>30</v>
+      </c>
+      <c r="K68" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" t="s">
+        <v>32</v>
+      </c>
+      <c r="E69" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" t="s">
+        <v>19</v>
+      </c>
+      <c r="H69" t="s">
+        <v>33</v>
+      </c>
+      <c r="I69" t="s">
+        <v>28</v>
+      </c>
+      <c r="K69" t="n">
+        <v>21.17</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="M69" t="n">
+        <v>20.22</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" t="s">
+        <v>32</v>
+      </c>
+      <c r="E70" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" t="s">
+        <v>19</v>
+      </c>
+      <c r="H70" t="s">
+        <v>33</v>
+      </c>
+      <c r="I70" t="s">
+        <v>34</v>
+      </c>
+      <c r="K70" t="n">
+        <v>19.42</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="M70" t="n">
+        <v>18.55</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s">
+        <v>35</v>
+      </c>
+      <c r="D71" t="s">
+        <v>36</v>
+      </c>
+      <c r="E71" t="s">
+        <v>29</v>
+      </c>
+      <c r="F71" t="s">
+        <v>37</v>
+      </c>
+      <c r="G71" t="s">
+        <v>19</v>
+      </c>
+      <c r="H71" t="s">
+        <v>38</v>
+      </c>
+      <c r="I71" t="s">
+        <v>30</v>
+      </c>
+      <c r="K71" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" t="s">
+        <v>35</v>
+      </c>
+      <c r="D72" t="s">
+        <v>36</v>
+      </c>
+      <c r="E72" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" t="s">
+        <v>37</v>
+      </c>
+      <c r="G72" t="s">
+        <v>19</v>
+      </c>
+      <c r="H72" t="s">
+        <v>38</v>
+      </c>
+      <c r="I72" t="s">
+        <v>21</v>
+      </c>
+      <c r="K72" t="n">
+        <v>267.62</v>
+      </c>
+      <c r="L72" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="M72" t="n">
+        <v>255.58</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" t="s">
+        <v>35</v>
+      </c>
+      <c r="D73" t="s">
+        <v>36</v>
+      </c>
+      <c r="E73" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" t="s">
+        <v>37</v>
+      </c>
+      <c r="G73" t="s">
+        <v>19</v>
+      </c>
+      <c r="H73" t="s">
+        <v>38</v>
+      </c>
+      <c r="I73" t="s">
+        <v>26</v>
+      </c>
+      <c r="K73" t="n">
+        <v>57.33</v>
+      </c>
+      <c r="L73" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="M73" t="n">
+        <v>54.75</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" t="s">
+        <v>35</v>
+      </c>
+      <c r="D74" t="s">
+        <v>39</v>
+      </c>
+      <c r="E74" t="s">
+        <v>29</v>
+      </c>
+      <c r="F74" t="s">
+        <v>37</v>
+      </c>
+      <c r="G74" t="s">
+        <v>40</v>
+      </c>
+      <c r="H74" t="s">
+        <v>41</v>
+      </c>
+      <c r="I74" t="s">
+        <v>42</v>
+      </c>
+      <c r="K74" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" t="s">
+        <v>35</v>
+      </c>
+      <c r="D75" t="s">
+        <v>43</v>
+      </c>
+      <c r="E75" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75" t="s">
+        <v>37</v>
+      </c>
+      <c r="G75" t="s">
+        <v>19</v>
+      </c>
+      <c r="H75" t="s">
+        <v>44</v>
+      </c>
+      <c r="I75" t="s">
+        <v>30</v>
+      </c>
+      <c r="K75" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s">
+        <v>35</v>
+      </c>
+      <c r="D76" t="s">
+        <v>43</v>
+      </c>
+      <c r="E76" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" t="s">
+        <v>37</v>
+      </c>
+      <c r="G76" t="s">
+        <v>19</v>
+      </c>
+      <c r="H76" t="s">
+        <v>44</v>
+      </c>
+      <c r="I76" t="s">
+        <v>28</v>
+      </c>
+      <c r="K76" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M76" t="n">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" t="s">
+        <v>35</v>
+      </c>
+      <c r="D77" t="s">
+        <v>43</v>
+      </c>
+      <c r="E77" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" t="s">
+        <v>37</v>
+      </c>
+      <c r="G77" t="s">
+        <v>19</v>
+      </c>
+      <c r="H77" t="s">
+        <v>44</v>
+      </c>
+      <c r="I77" t="s">
+        <v>27</v>
+      </c>
+      <c r="K77" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M77" t="n">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
+        <v>35</v>
+      </c>
+      <c r="D78" t="s">
+        <v>43</v>
+      </c>
+      <c r="E78" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" t="s">
+        <v>37</v>
+      </c>
+      <c r="G78" t="s">
+        <v>19</v>
+      </c>
+      <c r="H78" t="s">
+        <v>44</v>
+      </c>
+      <c r="I78" t="s">
+        <v>45</v>
+      </c>
+      <c r="K78" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="L78" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M78" t="n">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>35</v>
+      </c>
+      <c r="D79" t="s">
+        <v>43</v>
+      </c>
+      <c r="E79" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" t="s">
+        <v>37</v>
+      </c>
+      <c r="G79" t="s">
+        <v>19</v>
+      </c>
+      <c r="H79" t="s">
+        <v>44</v>
+      </c>
+      <c r="I79" t="s">
+        <v>46</v>
+      </c>
+      <c r="K79" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M79" t="n">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" t="s">
+        <v>47</v>
+      </c>
+      <c r="D80" t="s">
+        <v>39</v>
+      </c>
+      <c r="E80" t="s">
+        <v>29</v>
+      </c>
+      <c r="F80" t="s">
+        <v>37</v>
+      </c>
+      <c r="G80" t="s">
+        <v>19</v>
+      </c>
+      <c r="H80" t="s">
+        <v>41</v>
+      </c>
+      <c r="I80" t="s">
+        <v>30</v>
+      </c>
+      <c r="K80" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" t="s">
+        <v>47</v>
+      </c>
+      <c r="D81" t="s">
+        <v>48</v>
+      </c>
+      <c r="E81" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" t="s">
+        <v>37</v>
+      </c>
+      <c r="G81" t="s">
+        <v>19</v>
+      </c>
+      <c r="H81" t="s">
+        <v>49</v>
+      </c>
+      <c r="I81" t="s">
+        <v>34</v>
+      </c>
+      <c r="K81" t="n">
+        <v>21.04</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="M81" t="n">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>47</v>
+      </c>
+      <c r="D82" t="s">
+        <v>48</v>
+      </c>
+      <c r="E82" t="s">
+        <v>29</v>
+      </c>
+      <c r="F82" t="s">
+        <v>37</v>
+      </c>
+      <c r="G82" t="s">
+        <v>19</v>
+      </c>
+      <c r="H82" t="s">
+        <v>49</v>
+      </c>
+      <c r="I82" t="s">
+        <v>30</v>
+      </c>
+      <c r="K82" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" t="s">
+        <v>47</v>
+      </c>
+      <c r="D83" t="s">
+        <v>50</v>
+      </c>
+      <c r="E83" t="s">
+        <v>29</v>
+      </c>
+      <c r="F83" t="s">
+        <v>37</v>
+      </c>
+      <c r="G83" t="s">
+        <v>19</v>
+      </c>
+      <c r="H83" t="s">
+        <v>51</v>
+      </c>
+      <c r="I83" t="s">
+        <v>30</v>
+      </c>
+      <c r="K83" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s">
+        <v>47</v>
+      </c>
+      <c r="D84" t="s">
+        <v>50</v>
+      </c>
+      <c r="E84" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" t="s">
+        <v>37</v>
+      </c>
+      <c r="G84" t="s">
+        <v>19</v>
+      </c>
+      <c r="H84" t="s">
+        <v>51</v>
+      </c>
+      <c r="I84" t="s">
+        <v>34</v>
+      </c>
+      <c r="K84" t="n">
+        <v>21.04</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="M84" t="n">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" t="s">
+        <v>47</v>
+      </c>
+      <c r="D85" t="s">
+        <v>50</v>
+      </c>
+      <c r="E85" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" t="s">
+        <v>37</v>
+      </c>
+      <c r="G85" t="s">
+        <v>19</v>
+      </c>
+      <c r="H85" t="s">
+        <v>51</v>
+      </c>
+      <c r="I85" t="s">
+        <v>21</v>
+      </c>
+      <c r="K85" t="n">
+        <v>267.62</v>
+      </c>
+      <c r="L85" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="M85" t="n">
+        <v>255.58</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" t="s">
+        <v>47</v>
+      </c>
+      <c r="D86" t="s">
+        <v>50</v>
+      </c>
+      <c r="E86" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" t="s">
+        <v>37</v>
+      </c>
+      <c r="G86" t="s">
+        <v>19</v>
+      </c>
+      <c r="H86" t="s">
+        <v>51</v>
+      </c>
+      <c r="I86" t="s">
+        <v>46</v>
+      </c>
+      <c r="K86" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="L86" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M86" t="n">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" t="s">
+        <v>47</v>
+      </c>
+      <c r="D87" t="s">
+        <v>50</v>
+      </c>
+      <c r="E87" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" t="s">
+        <v>37</v>
+      </c>
+      <c r="G87" t="s">
+        <v>19</v>
+      </c>
+      <c r="H87" t="s">
+        <v>51</v>
+      </c>
+      <c r="I87" t="s">
+        <v>45</v>
+      </c>
+      <c r="K87" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M87" t="n">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" t="s">
+        <v>47</v>
+      </c>
+      <c r="D88" t="s">
+        <v>50</v>
+      </c>
+      <c r="E88" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" t="s">
+        <v>37</v>
+      </c>
+      <c r="G88" t="s">
+        <v>19</v>
+      </c>
+      <c r="H88" t="s">
+        <v>51</v>
+      </c>
+      <c r="I88" t="s">
+        <v>27</v>
+      </c>
+      <c r="K88" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M88" t="n">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" t="s">
+        <v>47</v>
+      </c>
+      <c r="D89" t="s">
+        <v>50</v>
+      </c>
+      <c r="E89" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" t="s">
+        <v>37</v>
+      </c>
+      <c r="G89" t="s">
+        <v>19</v>
+      </c>
+      <c r="H89" t="s">
+        <v>51</v>
+      </c>
+      <c r="I89" t="s">
+        <v>28</v>
+      </c>
+      <c r="K89" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M89" t="n">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" t="s">
+        <v>47</v>
+      </c>
+      <c r="D90" t="s">
+        <v>52</v>
+      </c>
+      <c r="E90" t="s">
+        <v>29</v>
+      </c>
+      <c r="F90" t="s">
+        <v>37</v>
+      </c>
+      <c r="G90" t="s">
+        <v>19</v>
+      </c>
+      <c r="H90" t="s">
+        <v>53</v>
+      </c>
+      <c r="I90" t="s">
+        <v>30</v>
+      </c>
+      <c r="K90" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" t="s">
+        <v>47</v>
+      </c>
+      <c r="D91" t="s">
+        <v>52</v>
+      </c>
+      <c r="E91" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" t="s">
+        <v>37</v>
+      </c>
+      <c r="G91" t="s">
+        <v>19</v>
+      </c>
+      <c r="H91" t="s">
+        <v>53</v>
+      </c>
+      <c r="I91" t="s">
+        <v>45</v>
+      </c>
+      <c r="K91" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="L91" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M91" t="n">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" t="s">
+        <v>47</v>
+      </c>
+      <c r="D92" t="s">
+        <v>52</v>
+      </c>
+      <c r="E92" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" t="s">
+        <v>37</v>
+      </c>
+      <c r="G92" t="s">
+        <v>19</v>
+      </c>
+      <c r="H92" t="s">
+        <v>53</v>
+      </c>
+      <c r="I92" t="s">
+        <v>34</v>
+      </c>
+      <c r="K92" t="n">
+        <v>21.04</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="M92" t="n">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" t="s">
+        <v>47</v>
+      </c>
+      <c r="D93" t="s">
+        <v>52</v>
+      </c>
+      <c r="E93" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" t="s">
+        <v>37</v>
+      </c>
+      <c r="G93" t="s">
+        <v>19</v>
+      </c>
+      <c r="H93" t="s">
+        <v>53</v>
+      </c>
+      <c r="I93" t="s">
+        <v>28</v>
+      </c>
+      <c r="K93" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M93" t="n">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" t="s">
+        <v>47</v>
+      </c>
+      <c r="D94" t="s">
+        <v>54</v>
+      </c>
+      <c r="E94" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" t="s">
+        <v>37</v>
+      </c>
+      <c r="G94" t="s">
+        <v>19</v>
+      </c>
+      <c r="H94" t="s">
+        <v>55</v>
+      </c>
+      <c r="I94" t="s">
+        <v>45</v>
+      </c>
+      <c r="K94" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="L94" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M94" t="n">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" t="s">
+        <v>47</v>
+      </c>
+      <c r="D95" t="s">
+        <v>54</v>
+      </c>
+      <c r="E95" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" t="s">
+        <v>37</v>
+      </c>
+      <c r="G95" t="s">
+        <v>19</v>
+      </c>
+      <c r="H95" t="s">
+        <v>55</v>
+      </c>
+      <c r="I95" t="s">
+        <v>27</v>
+      </c>
+      <c r="K95" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M95" t="n">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" t="s">
+        <v>47</v>
+      </c>
+      <c r="D96" t="s">
+        <v>54</v>
+      </c>
+      <c r="E96" t="s">
+        <v>29</v>
+      </c>
+      <c r="F96" t="s">
+        <v>37</v>
+      </c>
+      <c r="G96" t="s">
+        <v>19</v>
+      </c>
+      <c r="H96" t="s">
+        <v>55</v>
+      </c>
+      <c r="I96" t="s">
+        <v>30</v>
+      </c>
+      <c r="K96" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" t="s">
+        <v>47</v>
+      </c>
+      <c r="D97" t="s">
+        <v>54</v>
+      </c>
+      <c r="E97" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" t="s">
+        <v>37</v>
+      </c>
+      <c r="G97" t="s">
+        <v>19</v>
+      </c>
+      <c r="H97" t="s">
+        <v>55</v>
+      </c>
+      <c r="I97" t="s">
+        <v>28</v>
+      </c>
+      <c r="K97" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M97" t="n">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" t="s">
+        <v>56</v>
+      </c>
+      <c r="D98" t="s">
+        <v>57</v>
+      </c>
+      <c r="E98" t="s">
+        <v>29</v>
+      </c>
+      <c r="F98" t="s">
+        <v>37</v>
+      </c>
+      <c r="G98" t="s">
+        <v>19</v>
+      </c>
+      <c r="H98" t="s">
+        <v>58</v>
+      </c>
+      <c r="I98" t="s">
+        <v>30</v>
+      </c>
+      <c r="K98" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s">
+        <v>56</v>
+      </c>
+      <c r="D99" t="s">
+        <v>57</v>
+      </c>
+      <c r="E99" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" t="s">
+        <v>37</v>
+      </c>
+      <c r="G99" t="s">
+        <v>19</v>
+      </c>
+      <c r="H99" t="s">
+        <v>58</v>
+      </c>
+      <c r="I99" t="s">
+        <v>45</v>
+      </c>
+      <c r="K99" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="L99" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M99" t="n">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" t="s">
+        <v>56</v>
+      </c>
+      <c r="D100" t="s">
+        <v>57</v>
+      </c>
+      <c r="E100" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" t="s">
+        <v>37</v>
+      </c>
+      <c r="G100" t="s">
+        <v>19</v>
+      </c>
+      <c r="H100" t="s">
+        <v>58</v>
+      </c>
+      <c r="I100" t="s">
+        <v>34</v>
+      </c>
+      <c r="K100" t="n">
+        <v>21.04</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="M100" t="n">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" t="s">
+        <v>56</v>
+      </c>
+      <c r="D101" t="s">
+        <v>57</v>
+      </c>
+      <c r="E101" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" t="s">
+        <v>37</v>
+      </c>
+      <c r="G101" t="s">
+        <v>19</v>
+      </c>
+      <c r="H101" t="s">
+        <v>58</v>
+      </c>
+      <c r="I101" t="s">
+        <v>28</v>
+      </c>
+      <c r="K101" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="L101" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M101" t="n">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" t="s">
+        <v>56</v>
+      </c>
+      <c r="D102" t="s">
+        <v>59</v>
+      </c>
+      <c r="E102" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" t="s">
+        <v>37</v>
+      </c>
+      <c r="G102" t="s">
+        <v>19</v>
+      </c>
+      <c r="H102" t="s">
+        <v>60</v>
+      </c>
+      <c r="I102" t="s">
+        <v>27</v>
+      </c>
+      <c r="K102" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="L102" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M102" t="n">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>56</v>
+      </c>
+      <c r="D103" t="s">
+        <v>59</v>
+      </c>
+      <c r="E103" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" t="s">
+        <v>37</v>
+      </c>
+      <c r="G103" t="s">
+        <v>19</v>
+      </c>
+      <c r="H103" t="s">
+        <v>60</v>
+      </c>
+      <c r="I103" t="s">
+        <v>28</v>
+      </c>
+      <c r="K103" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M103" t="n">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" t="s">
+        <v>56</v>
+      </c>
+      <c r="D104" t="s">
+        <v>59</v>
+      </c>
+      <c r="E104" t="s">
+        <v>11</v>
+      </c>
+      <c r="F104" t="s">
+        <v>37</v>
+      </c>
+      <c r="G104" t="s">
+        <v>19</v>
+      </c>
+      <c r="H104" t="s">
+        <v>60</v>
+      </c>
+      <c r="I104" t="s">
+        <v>34</v>
+      </c>
+      <c r="K104" t="n">
+        <v>21.04</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="M104" t="n">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" t="s">
+        <v>56</v>
+      </c>
+      <c r="D105" t="s">
+        <v>59</v>
+      </c>
+      <c r="E105" t="s">
+        <v>29</v>
+      </c>
+      <c r="F105" t="s">
+        <v>37</v>
+      </c>
+      <c r="G105" t="s">
+        <v>19</v>
+      </c>
+      <c r="H105" t="s">
+        <v>60</v>
+      </c>
+      <c r="I105" t="s">
+        <v>30</v>
+      </c>
+      <c r="K105" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>56</v>
+      </c>
+      <c r="D106" t="s">
+        <v>61</v>
+      </c>
+      <c r="E106" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" t="s">
+        <v>37</v>
+      </c>
+      <c r="G106" t="s">
+        <v>19</v>
+      </c>
+      <c r="H106" t="s">
+        <v>62</v>
+      </c>
+      <c r="I106" t="s">
+        <v>27</v>
+      </c>
+      <c r="K106" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="L106" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M106" t="n">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" t="s">
+        <v>56</v>
+      </c>
+      <c r="D107" t="s">
+        <v>61</v>
+      </c>
+      <c r="E107" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" t="s">
+        <v>37</v>
+      </c>
+      <c r="G107" t="s">
+        <v>19</v>
+      </c>
+      <c r="H107" t="s">
+        <v>62</v>
+      </c>
+      <c r="I107" t="s">
+        <v>34</v>
+      </c>
+      <c r="K107" t="n">
+        <v>21.04</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="M107" t="n">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s">
+        <v>56</v>
+      </c>
+      <c r="D108" t="s">
+        <v>61</v>
+      </c>
+      <c r="E108" t="s">
+        <v>29</v>
+      </c>
+      <c r="F108" t="s">
+        <v>37</v>
+      </c>
+      <c r="G108" t="s">
+        <v>19</v>
+      </c>
+      <c r="H108" t="s">
+        <v>62</v>
+      </c>
+      <c r="I108" t="s">
+        <v>30</v>
+      </c>
+      <c r="K108" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" t="s">
+        <v>56</v>
+      </c>
+      <c r="D109" t="s">
+        <v>61</v>
+      </c>
+      <c r="E109" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109" t="s">
+        <v>37</v>
+      </c>
+      <c r="G109" t="s">
+        <v>19</v>
+      </c>
+      <c r="H109" t="s">
+        <v>62</v>
+      </c>
+      <c r="I109" t="s">
+        <v>28</v>
+      </c>
+      <c r="K109" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="L109" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M109" t="n">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" t="s">
+        <v>63</v>
+      </c>
+      <c r="D110" t="s">
+        <v>64</v>
+      </c>
+      <c r="E110" t="s">
+        <v>29</v>
+      </c>
+      <c r="F110" t="s">
+        <v>65</v>
+      </c>
+      <c r="G110" t="s">
+        <v>19</v>
+      </c>
+      <c r="H110" t="s">
+        <v>66</v>
+      </c>
+      <c r="I110" t="s">
+        <v>30</v>
+      </c>
+      <c r="K110" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" t="s">
+        <v>63</v>
+      </c>
+      <c r="D111" t="s">
+        <v>64</v>
+      </c>
+      <c r="E111" t="s">
+        <v>11</v>
+      </c>
+      <c r="F111" t="s">
+        <v>65</v>
+      </c>
+      <c r="G111" t="s">
+        <v>19</v>
+      </c>
+      <c r="H111" t="s">
+        <v>66</v>
+      </c>
+      <c r="I111" t="s">
+        <v>26</v>
+      </c>
+      <c r="K111" t="n">
+        <v>51.82</v>
+      </c>
+      <c r="L111" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="M111" t="n">
+        <v>49.49</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" t="s">
+        <v>63</v>
+      </c>
+      <c r="D112" t="s">
+        <v>64</v>
+      </c>
+      <c r="E112" t="s">
+        <v>11</v>
+      </c>
+      <c r="F112" t="s">
+        <v>65</v>
+      </c>
+      <c r="G112" t="s">
+        <v>19</v>
+      </c>
+      <c r="H112" t="s">
+        <v>66</v>
+      </c>
+      <c r="I112" t="s">
+        <v>21</v>
+      </c>
+      <c r="K112" t="n">
+        <v>241.88</v>
+      </c>
+      <c r="L112" t="n">
+        <v>10.88</v>
+      </c>
+      <c r="M112" t="n">
+        <v>231.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" t="s">
+        <v>63</v>
+      </c>
+      <c r="D113" t="s">
+        <v>64</v>
+      </c>
+      <c r="E113" t="s">
+        <v>11</v>
+      </c>
+      <c r="F113" t="s">
+        <v>65</v>
+      </c>
+      <c r="G113" t="s">
+        <v>19</v>
+      </c>
+      <c r="H113" t="s">
+        <v>66</v>
+      </c>
+      <c r="I113" t="s">
+        <v>45</v>
+      </c>
+      <c r="K113" t="n">
+        <v>20.73</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="M113" t="n">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" t="s">
+        <v>63</v>
+      </c>
+      <c r="D114" t="s">
+        <v>64</v>
+      </c>
+      <c r="E114" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114" t="s">
+        <v>65</v>
+      </c>
+      <c r="G114" t="s">
+        <v>19</v>
+      </c>
+      <c r="H114" t="s">
+        <v>66</v>
+      </c>
+      <c r="I114" t="s">
+        <v>27</v>
+      </c>
+      <c r="K114" t="n">
+        <v>20.73</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="M114" t="n">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" t="s">
+        <v>63</v>
+      </c>
+      <c r="D115" t="s">
+        <v>64</v>
+      </c>
+      <c r="E115" t="s">
+        <v>11</v>
+      </c>
+      <c r="F115" t="s">
+        <v>65</v>
+      </c>
+      <c r="G115" t="s">
+        <v>19</v>
+      </c>
+      <c r="H115" t="s">
+        <v>66</v>
+      </c>
+      <c r="I115" t="s">
+        <v>28</v>
+      </c>
+      <c r="K115" t="n">
+        <v>20.73</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="M115" t="n">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="N116" t="n">
+        <v>4752.020000000001</v>
       </c>
     </row>
   </sheetData>
